--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,218 +55,218 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
+  </si>
+  <si>
+    <t>WVOS (West Virginia Oncology Society)</t>
+  </si>
+  <si>
+    <t>DSCO (Delaware Society of Clinical Oncology)</t>
+  </si>
+  <si>
+    <t>OSNJ (Oncology Society of New Jersey)</t>
+  </si>
+  <si>
+    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
     <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
   </si>
   <si>
+    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
+  </si>
+  <si>
+    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
+  </si>
+  <si>
+    <t>Yes, 
+The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
     <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
   </si>
   <si>
+    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
+  </si>
+  <si>
+    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
+  </si>
+  <si>
+    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
   </si>
   <si>
     <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
   </si>
   <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
-  </si>
-  <si>
     <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
   </si>
   <si>
-    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
-  </si>
-  <si>
-    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
-  </si>
-  <si>
-    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>WVOS (West Virginia Oncology Society)</t>
-  </si>
-  <si>
-    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
-  </si>
-  <si>
-    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
-  </si>
-  <si>
     <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
-  </si>
-  <si>
-    <t>No, lack of information.</t>
-  </si>
-  <si>
-    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
-  </si>
-  <si>
-    <t>ESHOS (Empire State Hematology Oncology Society)</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>DSCO (Delaware Society of Clinical Oncology)</t>
-  </si>
-  <si>
-    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
-  </si>
-  <si>
-    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
   </si>
   <si>
     <t>No, 
 DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
   </si>
   <si>
+    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
+  </si>
+  <si>
+    <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
+  </si>
+  <si>
+    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
+  </si>
+  <si>
     <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
   </si>
   <si>
+    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
+  </si>
+  <si>
+    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
+  </si>
+  <si>
     <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
   </si>
   <si>
+    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
+  </si>
+  <si>
+    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
+  </si>
+  <si>
+    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
+  </si>
+  <si>
     <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
   </si>
   <si>
+    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
+  </si>
+  <si>
+    <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
+  </si>
+  <si>
+    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>No, lack of information.</t>
+  </si>
+  <si>
     <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
+  </si>
+  <si>
+    <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
+  </si>
+  <si>
+    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
   </si>
   <si>
     <t>No, the DSCO may not include top therapeutic area experts on its board.
 Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
   </si>
   <si>
-    <t>OSNJ (Oncology Society of New Jersey)</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
-  </si>
-  <si>
-    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
-  </si>
-  <si>
-    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
-  </si>
-  <si>
     <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
   </si>
   <si>
-    <t>Yes, 
-The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
-  </si>
-  <si>
-    <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
-  </si>
-  <si>
-    <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
-  </si>
-  <si>
-    <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not include top therapeutic area experts on its board. , As ESHOS is focused on hematology and oncology, it is likely that the board consists of experts in those specific fields rather than across all therapeutic areas.</t>
   </si>
   <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
     <t>Virginia</t>
   </si>
   <si>
+    <t>Delaware</t>
+  </si>
+  <si>
     <t>New Jersey</t>
   </si>
   <si>
-    <t>Delaware</t>
+    <t>New York</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,26 +318,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -389,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,10 +407,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,7 +441,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,16 +616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,249 +658,249 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>4100</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>3200</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
       <c r="B4">
-        <v>10000</v>
+        <v>324</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>750</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>187</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="2">
-        <v>1104</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H8" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1649</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>750</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>500</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,218 +60,218 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
+  </si>
+  <si>
+    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
+  </si>
+  <si>
+    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
     <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
   </si>
   <si>
+    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
+  </si>
+  <si>
+    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
+  </si>
+  <si>
+    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
+  </si>
+  <si>
+    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
     <t>WVOS (West Virginia Oncology Society)</t>
   </si>
   <si>
+    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
+  </si>
+  <si>
+    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
+  </si>
+  <si>
+    <t>No, lack of information.</t>
+  </si>
+  <si>
+    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
+  </si>
+  <si>
+    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
     <t>DSCO (Delaware Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
+  </si>
+  <si>
+    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
+  </si>
+  <si>
+    <t>No, 
+DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
+  </si>
+  <si>
+    <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
+  </si>
+  <si>
+    <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
+  </si>
+  <si>
+    <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
+  </si>
+  <si>
+    <t>No, the DSCO may not include top therapeutic area experts on its board.
+Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
+  </si>
+  <si>
     <t>OSNJ (Oncology Society of New Jersey)</t>
   </si>
   <si>
-    <t>ESHOS (Empire State Hematology Oncology Society)</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
-  </si>
-  <si>
-    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
-  </si>
-  <si>
     <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
+  </si>
+  <si>
+    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
+  </si>
+  <si>
+    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
   </si>
   <si>
     <t>Yes, 
 The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
   </si>
   <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
-  </si>
-  <si>
-    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
-  </si>
-  <si>
-    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
-  </si>
-  <si>
-    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
   </si>
   <si>
-    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
-  </si>
-  <si>
-    <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
-  </si>
-  <si>
-    <t>No, 
-DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
-  </si>
-  <si>
     <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
   </si>
   <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
-  </si>
-  <si>
-    <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
   </si>
   <si>
-    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
-  </si>
-  <si>
-    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
   </si>
   <si>
-    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
-  </si>
-  <si>
-    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
-  </si>
-  <si>
-    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
-  </si>
-  <si>
-    <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
-  </si>
-  <si>
-    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
-  </si>
-  <si>
     <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
   </si>
   <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>No, lack of information.</t>
-  </si>
-  <si>
-    <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
-  </si>
-  <si>
     <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
   </si>
   <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
-  </si>
-  <si>
-    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
-  </si>
-  <si>
-    <t>No, the DSCO may not include top therapeutic area experts on its board.
-Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not include top therapeutic area experts on its board. , As ESHOS is focused on hematology and oncology, it is likely that the board consists of experts in those specific fields rather than across all therapeutic areas.</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
     <t>Delaware</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New York</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,17 +323,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,9 +421,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,6 +456,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,14 +632,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,249 +676,249 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>800</v>
+        <v>4100</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>900</v>
+        <v>3200</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1649</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>150</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>235</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="K8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>127</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,218 +55,218 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
+  </si>
+  <si>
+    <t>WVOS (West Virginia Oncology Society)</t>
+  </si>
+  <si>
+    <t>DSCO (Delaware Society of Clinical Oncology)</t>
+  </si>
+  <si>
+    <t>OSNJ (Oncology Society of New Jersey)</t>
+  </si>
+  <si>
+    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
     <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
   </si>
   <si>
+    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
+  </si>
+  <si>
+    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
+  </si>
+  <si>
+    <t>Yes, 
+The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
     <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
   </si>
   <si>
+    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
+  </si>
+  <si>
+    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
+  </si>
+  <si>
+    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
   </si>
   <si>
     <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
   </si>
   <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
-  </si>
-  <si>
     <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
   </si>
   <si>
-    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
-  </si>
-  <si>
-    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
-  </si>
-  <si>
-    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>WVOS (West Virginia Oncology Society)</t>
-  </si>
-  <si>
-    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
-  </si>
-  <si>
-    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
-  </si>
-  <si>
     <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
-  </si>
-  <si>
-    <t>No, lack of information.</t>
-  </si>
-  <si>
-    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
-  </si>
-  <si>
-    <t>ESHOS (Empire State Hematology Oncology Society)</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>DSCO (Delaware Society of Clinical Oncology)</t>
-  </si>
-  <si>
-    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
-  </si>
-  <si>
-    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
   </si>
   <si>
     <t>No, 
 DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
   </si>
   <si>
+    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
+  </si>
+  <si>
+    <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
+  </si>
+  <si>
+    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
+  </si>
+  <si>
     <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
   </si>
   <si>
+    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
+  </si>
+  <si>
+    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
+  </si>
+  <si>
     <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
   </si>
   <si>
+    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
+  </si>
+  <si>
+    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
+  </si>
+  <si>
+    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
+  </si>
+  <si>
     <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
   </si>
   <si>
+    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
+  </si>
+  <si>
+    <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
+  </si>
+  <si>
+    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>No, lack of information.</t>
+  </si>
+  <si>
     <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
+  </si>
+  <si>
+    <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
+  </si>
+  <si>
+    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
   </si>
   <si>
     <t>No, the DSCO may not include top therapeutic area experts on its board.
 Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
   </si>
   <si>
-    <t>OSNJ (Oncology Society of New Jersey)</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
-  </si>
-  <si>
-    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
-  </si>
-  <si>
-    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
-  </si>
-  <si>
     <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
   </si>
   <si>
-    <t>Yes, 
-The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
-  </si>
-  <si>
-    <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
-  </si>
-  <si>
-    <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
-  </si>
-  <si>
-    <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not include top therapeutic area experts on its board. , As ESHOS is focused on hematology and oncology, it is likely that the board consists of experts in those specific fields rather than across all therapeutic areas.</t>
   </si>
   <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
     <t>Virginia</t>
   </si>
   <si>
+    <t>Delaware</t>
+  </si>
+  <si>
     <t>New Jersey</t>
   </si>
   <si>
-    <t>Delaware</t>
+    <t>New York</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,26 +318,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -389,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,10 +407,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,7 +441,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,16 +616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,249 +658,249 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>4100</v>
+        <v>725</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>3200</v>
+        <v>570</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
       <c r="B4">
-        <v>10000</v>
+        <v>962</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>187</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="2">
-        <v>1104</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H8" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1649</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>725</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>570</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>962</v>
+        <v>500</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>183</v>
+        <v>324</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>324</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>242</v>
+        <v>570</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>570</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>950</v>
+        <v>750</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,218 +60,218 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
+  </si>
+  <si>
+    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
+  </si>
+  <si>
+    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
     <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
   </si>
   <si>
+    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
+  </si>
+  <si>
+    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
+  </si>
+  <si>
+    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
+  </si>
+  <si>
+    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
     <t>WVOS (West Virginia Oncology Society)</t>
   </si>
   <si>
+    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
+  </si>
+  <si>
+    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
+  </si>
+  <si>
+    <t>No, lack of information.</t>
+  </si>
+  <si>
+    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
+  </si>
+  <si>
+    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
     <t>DSCO (Delaware Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
+  </si>
+  <si>
+    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
+  </si>
+  <si>
+    <t>No, 
+DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
+  </si>
+  <si>
+    <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
+  </si>
+  <si>
+    <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
+  </si>
+  <si>
+    <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
+  </si>
+  <si>
+    <t>No, the DSCO may not include top therapeutic area experts on its board.
+Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
+  </si>
+  <si>
     <t>OSNJ (Oncology Society of New Jersey)</t>
   </si>
   <si>
-    <t>ESHOS (Empire State Hematology Oncology Society)</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
-  </si>
-  <si>
-    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
-  </si>
-  <si>
     <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
+  </si>
+  <si>
+    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
+  </si>
+  <si>
+    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
   </si>
   <si>
     <t>Yes, 
 The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
   </si>
   <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
-  </si>
-  <si>
-    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
-  </si>
-  <si>
-    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
-  </si>
-  <si>
-    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
   </si>
   <si>
-    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
-  </si>
-  <si>
-    <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
-  </si>
-  <si>
-    <t>No, 
-DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
-  </si>
-  <si>
     <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
   </si>
   <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
-  </si>
-  <si>
-    <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
   </si>
   <si>
-    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
-  </si>
-  <si>
-    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
   </si>
   <si>
-    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
-  </si>
-  <si>
-    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
-  </si>
-  <si>
-    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
-  </si>
-  <si>
-    <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
-  </si>
-  <si>
-    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
-  </si>
-  <si>
     <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
   </si>
   <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>No, lack of information.</t>
-  </si>
-  <si>
-    <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
-  </si>
-  <si>
     <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
   </si>
   <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
-  </si>
-  <si>
-    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
-  </si>
-  <si>
-    <t>No, the DSCO may not include top therapeutic area experts on its board.
-Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not include top therapeutic area experts on its board. , As ESHOS is focused on hematology and oncology, it is likely that the board consists of experts in those specific fields rather than across all therapeutic areas.</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
     <t>Delaware</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New York</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,17 +323,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,9 +421,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,6 +456,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,14 +632,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,249 +676,249 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>750</v>
+        <v>4100</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>3200</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>600</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1649</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>120</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="K8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>300</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,218 +55,218 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
+  </si>
+  <si>
+    <t>WVOS (West Virginia Oncology Society)</t>
+  </si>
+  <si>
+    <t>DSCO (Delaware Society of Clinical Oncology)</t>
+  </si>
+  <si>
+    <t>OSNJ (Oncology Society of New Jersey)</t>
+  </si>
+  <si>
+    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
     <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
   </si>
   <si>
+    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
+  </si>
+  <si>
+    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
+  </si>
+  <si>
+    <t>Yes, 
+The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
     <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
   </si>
   <si>
+    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
+  </si>
+  <si>
+    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
+  </si>
+  <si>
+    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
+  </si>
+  <si>
     <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
   </si>
   <si>
     <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
   </si>
   <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
-  </si>
-  <si>
     <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
   </si>
   <si>
-    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
-  </si>
-  <si>
-    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
-  </si>
-  <si>
-    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>WVOS (West Virginia Oncology Society)</t>
-  </si>
-  <si>
-    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
-  </si>
-  <si>
-    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
-  </si>
-  <si>
     <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
-  </si>
-  <si>
-    <t>No, lack of information.</t>
-  </si>
-  <si>
-    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
-  </si>
-  <si>
-    <t>ESHOS (Empire State Hematology Oncology Society)</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>DSCO (Delaware Society of Clinical Oncology)</t>
-  </si>
-  <si>
-    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
-  </si>
-  <si>
-    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
   </si>
   <si>
     <t>No, 
 DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
   </si>
   <si>
+    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
+  </si>
+  <si>
+    <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
+  </si>
+  <si>
+    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
+  </si>
+  <si>
     <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
   </si>
   <si>
+    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
+  </si>
+  <si>
+    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
+  </si>
+  <si>
     <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
   </si>
   <si>
+    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
+  </si>
+  <si>
+    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
+  </si>
+  <si>
+    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
+  </si>
+  <si>
     <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
   </si>
   <si>
+    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
+  </si>
+  <si>
+    <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
+  </si>
+  <si>
+    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>No, lack of information.</t>
+  </si>
+  <si>
     <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
+  </si>
+  <si>
+    <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
+  </si>
+  <si>
+    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
   </si>
   <si>
     <t>No, the DSCO may not include top therapeutic area experts on its board.
 Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
   </si>
   <si>
-    <t>OSNJ (Oncology Society of New Jersey)</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
-  </si>
-  <si>
-    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
-  </si>
-  <si>
-    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
-  </si>
-  <si>
     <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
   </si>
   <si>
-    <t>Yes, 
-The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
-  </si>
-  <si>
-    <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
-  </si>
-  <si>
-    <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
-  </si>
-  <si>
-    <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not include top therapeutic area experts on its board. , As ESHOS is focused on hematology and oncology, it is likely that the board consists of experts in those specific fields rather than across all therapeutic areas.</t>
   </si>
   <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
     <t>Virginia</t>
   </si>
   <si>
+    <t>Delaware</t>
+  </si>
+  <si>
     <t>New Jersey</t>
   </si>
   <si>
-    <t>Delaware</t>
+    <t>New York</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,26 +318,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -389,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,10 +407,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,7 +441,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,16 +616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,249 +658,249 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>4100</v>
+        <v>800</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>3200</v>
+        <v>900</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
       <c r="B4">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>187</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="2">
-        <v>1104</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H8" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1649</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>675</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>500</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>840</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>675</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>152</v>
+        <v>400</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>575</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>175</v>
+        <v>535</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>535</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -663,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -698,7 +698,7 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -803,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,218 +60,218 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
+  </si>
+  <si>
+    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
+  </si>
+  <si>
+    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
     <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
   </si>
   <si>
+    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
+  </si>
+  <si>
+    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
+  </si>
+  <si>
+    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
+  </si>
+  <si>
+    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
     <t>WVOS (West Virginia Oncology Society)</t>
   </si>
   <si>
+    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
+  </si>
+  <si>
+    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
+  </si>
+  <si>
+    <t>No, lack of information.</t>
+  </si>
+  <si>
+    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
+  </si>
+  <si>
+    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
     <t>DSCO (Delaware Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
+  </si>
+  <si>
+    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
+  </si>
+  <si>
+    <t>No, 
+DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
+  </si>
+  <si>
+    <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
+  </si>
+  <si>
+    <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
+  </si>
+  <si>
+    <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
+  </si>
+  <si>
+    <t>No, the DSCO may not include top therapeutic area experts on its board.
+Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
+  </si>
+  <si>
     <t>OSNJ (Oncology Society of New Jersey)</t>
   </si>
   <si>
-    <t>ESHOS (Empire State Hematology Oncology Society)</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
-  </si>
-  <si>
-    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
-  </si>
-  <si>
     <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
+  </si>
+  <si>
+    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
+  </si>
+  <si>
+    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
   </si>
   <si>
     <t>Yes, 
 The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
   </si>
   <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
-  </si>
-  <si>
-    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
-  </si>
-  <si>
-    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
-  </si>
-  <si>
-    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
   </si>
   <si>
-    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
-  </si>
-  <si>
-    <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
-  </si>
-  <si>
-    <t>No, 
-DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
-  </si>
-  <si>
     <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
   </si>
   <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
-  </si>
-  <si>
-    <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
   </si>
   <si>
-    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
-  </si>
-  <si>
-    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
   </si>
   <si>
-    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
-  </si>
-  <si>
-    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
-  </si>
-  <si>
-    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
-  </si>
-  <si>
-    <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
-  </si>
-  <si>
-    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
-  </si>
-  <si>
     <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
   </si>
   <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>No, lack of information.</t>
-  </si>
-  <si>
-    <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
-  </si>
-  <si>
     <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
   </si>
   <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
-  </si>
-  <si>
-    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
-  </si>
-  <si>
-    <t>No, the DSCO may not include top therapeutic area experts on its board.
-Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not include top therapeutic area experts on its board. , As ESHOS is focused on hematology and oncology, it is likely that the board consists of experts in those specific fields rather than across all therapeutic areas.</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
     <t>Delaware</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>New York</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,17 +323,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,9 +421,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,6 +456,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -616,14 +632,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,249 +676,249 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>3200</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>400</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1649</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>250</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>350</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="K8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>150</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>Society Name</t>
   </si>
@@ -60,218 +55,102 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
-    <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
-  </si>
-  <si>
-    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Georgia</t>
+    <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
+  </si>
+  <si>
+    <t>WVOS (West Virginia Oncology Society)</t>
+  </si>
+  <si>
+    <t>DSCO (Delaware Society of Clinical Oncology)</t>
+  </si>
+  <si>
+    <t>OSNJ (Oncology Society of New Jersey)</t>
+  </si>
+  <si>
+    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
   </si>
   <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
-  </si>
-  <si>
-    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
-  </si>
-  <si>
-    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>WVOS (West Virginia Oncology Society)</t>
-  </si>
-  <si>
-    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
-  </si>
-  <si>
-    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
-  </si>
-  <si>
-    <t>No, lack of information.</t>
-  </si>
-  <si>
-    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
-  </si>
-  <si>
-    <t>ESHOS (Empire State Hematology Oncology Society)</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>DSCO (Delaware Society of Clinical Oncology)</t>
-  </si>
-  <si>
-    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
-  </si>
-  <si>
-    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
-  </si>
-  <si>
-    <t>No, 
-DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
-  </si>
-  <si>
-    <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
-  </si>
-  <si>
-    <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
-  </si>
-  <si>
-    <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
-  </si>
-  <si>
-    <t>No, the DSCO may not include top therapeutic area experts on its board.
-Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
-  </si>
-  <si>
-    <t>OSNJ (Oncology Society of New Jersey)</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
-  </si>
-  <si>
-    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
-  </si>
-  <si>
-    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
+    <t>No, PSOH does not encompass community sites, as it is focused on oncology and hematology specialists who are typically based in academic or specialized medical settings.</t>
   </si>
   <si>
     <t>Yes, 
 The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
   </si>
   <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
     <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
   </si>
   <si>
+    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
+  </si>
+  <si>
     <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
   </si>
   <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
     <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
   </si>
   <si>
+    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
+  </si>
+  <si>
     <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
   </si>
   <si>
+    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
+  </si>
+  <si>
     <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
   </si>
   <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
+  </si>
+  <si>
+    <t>No, WVOS is primarily focused on education and networking for oncology professionals.</t>
+  </si>
+  <si>
     <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
   </si>
   <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
+    <t>Yes, the DSCO includes top therapeutic area experts on its board. The organization would benefit from having subject matter experts who can provide valuable insights and guidance in the field of clinical oncology.</t>
+  </si>
+  <si>
     <t>No, ESHOS does not include top therapeutic area experts on its board. , As ESHOS is focused on hematology and oncology, it is likely that the board consists of experts in those specific fields rather than across all therapeutic areas.</t>
   </si>
   <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Appalachia</t>
   </si>
   <si>
     <t>Delaware</t>
+  </si>
+  <si>
+    <t>New York</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,26 +202,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -389,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,10 +291,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,7 +325,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,16 +500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -684,241 +550,241 @@
         <v>4100</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>3200</v>
+      <c r="B3" t="s">
+        <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B8">
+        <v>1200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>10000</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J8" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>187</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="K8" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1104</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1649</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Society Name</t>
   </si>
@@ -55,102 +60,218 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
+  </si>
+  <si>
+    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
+  </si>
+  <si>
+    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
     <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
   </si>
   <si>
+    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
+  </si>
+  <si>
+    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
+  </si>
+  <si>
+    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
+  </si>
+  <si>
+    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
     <t>WVOS (West Virginia Oncology Society)</t>
   </si>
   <si>
+    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
+  </si>
+  <si>
+    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
+  </si>
+  <si>
+    <t>No, lack of information.</t>
+  </si>
+  <si>
+    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
+  </si>
+  <si>
+    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
     <t>DSCO (Delaware Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
+  </si>
+  <si>
+    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
+  </si>
+  <si>
+    <t>No, 
+DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
+  </si>
+  <si>
+    <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
+  </si>
+  <si>
+    <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
+  </si>
+  <si>
+    <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
+  </si>
+  <si>
+    <t>No, the DSCO may not include top therapeutic area experts on its board.
+Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
+  </si>
+  <si>
     <t>OSNJ (Oncology Society of New Jersey)</t>
   </si>
   <si>
-    <t>ESHOS (Empire State Hematology Oncology Society)</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>No, PSOH does not encompass community sites, as it is focused on oncology and hematology specialists who are typically based in academic or specialized medical settings.</t>
+    <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
+  </si>
+  <si>
+    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
+  </si>
+  <si>
+    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
   </si>
   <si>
     <t>Yes, 
 The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
   </si>
   <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
   </si>
   <si>
-    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
-  </si>
-  <si>
     <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
   </si>
   <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
   </si>
   <si>
-    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
   </si>
   <si>
-    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
-  </si>
-  <si>
     <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
   </si>
   <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
-  </si>
-  <si>
-    <t>No, WVOS is primarily focused on education and networking for oncology professionals.</t>
-  </si>
-  <si>
     <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
   </si>
   <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>Yes, the DSCO includes top therapeutic area experts on its board. The organization would benefit from having subject matter experts who can provide valuable insights and guidance in the field of clinical oncology.</t>
-  </si>
-  <si>
     <t>No, ESHOS does not include top therapeutic area experts on its board. , As ESHOS is focused on hematology and oncology, it is likely that the board consists of experts in those specific fields rather than across all therapeutic areas.</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Appalachia</t>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
   </si>
   <si>
     <t>Delaware</t>
-  </si>
-  <si>
-    <t>New York</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,17 +323,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -259,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,9 +421,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,6 +456,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,14 +632,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -550,241 +684,241 @@
         <v>4100</v>
       </c>
       <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="B3">
+        <v>3200</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1649</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2">
         <v>1200</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Society Name</t>
   </si>
@@ -60,218 +55,239 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
-    <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
-  </si>
-  <si>
-    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+    <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
+  </si>
+  <si>
+    <t>WVOS (West Virginia Oncology Society)</t>
+  </si>
+  <si>
+    <t>DSCO (Delaware Society of Clinical Oncology)</t>
+  </si>
+  <si>
+    <t>OSNJ (Oncology Society of New Jersey)</t>
+  </si>
+  <si>
+    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not encompass community sites. FLASCO is focused on providing a forum for education and networking for oncology professionals in Florida, primarily within academic and research institutions.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not encompass community sites, as it focuses on clinical oncology practices.</t>
+  </si>
+  <si>
+    <t>Yes, PSOH encompasses community sites as they work with oncology and hematology practices throughout the state of Pennsylvania.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not encompass community sites as it focuses on oncology-related issues specifically within the state of West Virginia.</t>
+  </si>
+  <si>
+    <t>No, DSCO does not encompass community sites as it is specifically focused on clinical oncology.</t>
+  </si>
+  <si>
+    <t>No, OSNJ mostly focuses on academic medical centers and large hospital-based cancer centers.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not encompass community sites. ESHOS focuses on hematology and oncology centers in the state of New York, rather than community-based practices.</t>
+  </si>
+  <si>
+    <t>No, FLASCO is not influential on state or local policy, as their primary focus is on providing education and resources for clinical oncologists rather than advocating for policy changes.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not have a significant influence on state or local policy. While they may provide input or recommendations, they are not a primary decision-making body for policy changes.</t>
+  </si>
+  <si>
+    <t>No, PSOH is not influential on state or local policy, as they primarily focus on education and advocacy within the field of oncology and hematology.</t>
+  </si>
+  <si>
+    <t>No, WVOS is primarily focused on education, research, and advocacy at a local level.</t>
+  </si>
+  <si>
+    <t>No, , DSCO is primarily focused on professional networking, education, and advocacy at the national level through its affiliation with the national organization, ASCO (American Society of Clinical Oncology).</t>
+  </si>
+  <si>
+    <t>No, The OSNJ is primarily focused on education, research, and advancing the practice of oncology in New Jersey.</t>
+  </si>
+  <si>
+    <t>No, ESHOS is primarily focused on education and networking within the field of hematology and oncology , rather than on influencing policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with leadership through various networking events, annual meetings, and conferences.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunity with leadership. GASCO regularly holds meetings, conferences, and events that allow members to interact with and learn from key leaders in the field of oncology.</t>
+  </si>
+  <si>
+    <t>Yes, PSOH provides engagement opportunities with leadership; their events, meetings, and conferences provide members with the chance to interact with key leaders in the field.</t>
+  </si>
+  <si>
+    <t>Yes, WVOS provides engagement opportunity with leadership. WVOS offers various forums, events, and networking opportunities for members to connect with and learn from oncology leaders in West Virginia.</t>
+  </si>
+  <si>
+    <t>No, The website does not mention any specific engagement opportunities with leadership, just general membership information and events.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committee involvement.</t>
+  </si>
+  <si>
+    <t>Yes, ESHOS provides engagement opportunity with leadership. This can be seen through networking events, mentorship programs, and interactions at conferences and meetings.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provide support for clinical trial recruitment. FLASCO offers resources and assistance to help physicians and patients find and participate in clinical trials.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide support for clinical trial recruitment. GASCO is primarily focused on education, advocacy, and networking for oncology professionals in Georgia, rather than directly supporting patient recruitment for clinical trials.</t>
+  </si>
+  <si>
+    <t>No, PSOH does not provide support for clinical trial recruitment. PSOH is a professional organization for healthcare providers focusing on education and advocacy in oncology and hematology, not directly involved in patient recruitment for clinical trials.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS focuses on education and advocacy for oncology professionals in West Virginia.</t>
+  </si>
+  <si>
+    <t>Yes, DSCO provides support for clinical trial recruitment, as they collaborate with industry partners and research institutions to promote and facilitate participation in clinical trials.</t>
+  </si>
+  <si>
+    <t>No, OSNJ does not provide support for clinical trial recruitment. OSNJ focuses on educational and networking opportunities for oncology professionals in New Jersey.</t>
+  </si>
+  <si>
+    <t>Yes, ESHOS provides support for clinical trial recruitment. The organization collaborates with academic institutions and industry partners to facilitate access to clinical trials for patients.</t>
+  </si>
+  <si>
+    <t>No, FLASCO does not provide engagement opportunity with payors. FLASCO's focus is on providing education, advocacy, and support for clinical oncology professionals, rather than facilitating interactions with payors.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide engagement opportunity with payors. GASCO is a professional organization for oncologists in Georgia and primarily focuses on education, advocacy, and networking within the oncology community rather than engagement with payors.</t>
+  </si>
+  <si>
+    <t>No, PSOH does not engage with payors, as their focus is on oncology and hematology education and advocacy for healthcare professionals.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunities with payors. There is no mention of WVOS engaging with payors in their mission statement or any other information available online.</t>
+  </si>
+  <si>
+    <t>No, DSCO does not provide engagement opportunities with payors. , DSCO primarily focuses on education and advocacy for clinical oncologists rather than direct engagement with payors.</t>
+  </si>
+  <si>
+    <t>No, OSNJ does not typically provide engagement opportunities with payors. OSNJ focuses on oncology education and research, rather than payor interactions.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide engagement opportunity with payors as it is a society focused on hematology and oncology education and research.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO includes area experts on its board because its board members are renowned oncology professionals with vast experience and expertise in the field.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board. This can be inferred from the fact that GASCO is a professional organization focused on clinical oncology, which would likely require expertise from individuals in the field to effectively provide guidance and leadership.</t>
+  </si>
+  <si>
+    <t>No, PSOH does not have area experts on its board. The society is primarily composed of oncologists and hematologists.</t>
+  </si>
+  <si>
+    <t>Yes, the WVOS includes area experts on its board because they are dedicated to providing quality oncology care in West Virginia.</t>
+  </si>
+  <si>
+    <t>Yes, DSCO includes area experts on its board. The organization typically seeks out individuals with strong clinical oncology backgrounds to serve on its board to ensure that decisions are informed and strategic.</t>
+  </si>
+  <si>
+    <t>Yes, the OSNJ includes area experts on its board to ensure the highest level of expertise and guidance in the field of oncology.</t>
+  </si>
+  <si>
+    <t>Yes, ESHOS includes area experts on its board. This can be inferred from the nature of the organization as a society that focuses on hematology and oncology, which would require expertise in the field.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with researchers, pharmaceutical companies, and other healthcare organizations to advance cancer treatment options for patients.</t>
+  </si>
+  <si>
+    <t>No, GASCO is primarily focused on education and advocacy efforts for clinical oncologists in Georgia.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily focused on education and networking for healthcare professionals in oncology and hematology.</t>
+  </si>
+  <si>
+    <t>No, WVOS is primarily focused on education and networking among oncology professionals.</t>
+  </si>
+  <si>
+    <t>No, DSCO is a professional society focused on education and advocacy for clinical oncologists, not on research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, 
+The OSNJ is involved in therapeutic research collaborations to help advance cancer treatments and care.</t>
+  </si>
+  <si>
+    <t>Yes, 
+Justification: As a professional society primarily focused on hematology and oncology, ESHOS is likely to be involved in therapeutic research collaborations to advance the field and improve patient outcomes.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO includes top therapeutic area experts on its board. FLASCO's board is composed of leading oncology professionals who specialize in various therapeutic areas within the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board , as there is no specific information provided to confirm this.</t>
+  </si>
+  <si>
+    <t>No, lack expertise on the board.</t>
+  </si>
+  <si>
+    <t>Yes, The board of WVOS includes top therapeutic area experts who are knowledgeable and experienced in the field of oncology.</t>
+  </si>
+  <si>
+    <t>Yes, 
+Many oncology experts are part of the DSCO board, providing valuable insights and expertise in the field.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ includes top therapeutic area experts on its board. This can be seen in the organization's commitment to providing the most current and effective treatment options for cancer patients in New Jersey.</t>
+  </si>
+  <si>
+    <t>No, the board of ESHOS does not include top therapeutic area experts. The website does not list specific board members or their expertise in the field.</t>
   </si>
   <si>
     <t>Florida</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
-  </si>
-  <si>
-    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
-  </si>
-  <si>
-    <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
-  </si>
-  <si>
-    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
-  </si>
-  <si>
-    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
-  </si>
-  <si>
-    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
+    <t>South.</t>
   </si>
   <si>
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t>WVOS (West Virginia Oncology Society)</t>
-  </si>
-  <si>
-    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
-  </si>
-  <si>
-    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
-  </si>
-  <si>
-    <t>No, lack of information.</t>
-  </si>
-  <si>
-    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
-  </si>
-  <si>
-    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Northeastern United States.</t>
   </si>
   <si>
     <t>New York</t>
-  </si>
-  <si>
-    <t>DSCO (Delaware Society of Clinical Oncology)</t>
-  </si>
-  <si>
-    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
-  </si>
-  <si>
-    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
-  </si>
-  <si>
-    <t>No, 
-DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
-  </si>
-  <si>
-    <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
-  </si>
-  <si>
-    <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
-  </si>
-  <si>
-    <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
-  </si>
-  <si>
-    <t>No, the DSCO may not include top therapeutic area experts on its board.
-Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
-  </si>
-  <si>
-    <t>OSNJ (Oncology Society of New Jersey)</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
-  </si>
-  <si>
-    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
-  </si>
-  <si>
-    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
-  </si>
-  <si>
-    <t>Yes, 
-The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
-  </si>
-  <si>
-    <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
-  </si>
-  <si>
-    <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
-  </si>
-  <si>
-    <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not include top therapeutic area experts on its board. , As ESHOS is focused on hematology and oncology, it is likely that the board consists of experts in those specific fields rather than across all therapeutic areas.</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>Delaware</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,26 +339,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -389,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,10 +428,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,7 +462,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,16 +637,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,249 +679,249 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>4100</v>
+      <c r="B2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>3200</v>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="B4">
-        <v>10000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>187</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="2">
-        <v>1104</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1649</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>51</v>
+      <c r="K8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushagra.sharma1\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Society Name</t>
   </si>
@@ -55,239 +60,218 @@
     <t>GASCO (Georgia Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>Yes, GASCO encompasses community sites. Community oncology practices are included in GASCO to ensure all aspects of cancer care are represented.</t>
+  </si>
+  <si>
+    <t>No, GASCO is not influential on state or local policy. GASCO is a professional organization focused on supporting oncology professionals and providing education and resources, rather than lobbying for policy changes.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with leadership, as they offer various networking events and educational programs where members can interact with the leadership team.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO provides engagement opportunity with leadership through mentorship programs, networking events, and involvement in committees and task forces.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide support for clinical trial recruitment, as they primarily focus on education, advocacy, and networking opportunities for oncology professionals.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO provides engagement opportunities with payors. FLASCO works closely with payors to advocate for advancements in oncology care and ensure that patients have access to cutting-edge treatments.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not provide engagement opportunities with payors. GASCO is a professional organization for oncologists and does not focus on payor engagement.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board includes area experts from various oncology fields who bring their expertise and knowledge to the organization.</t>
+  </si>
+  <si>
+    <t>Yes, GASCO includes area experts on its board. GASCO is a professional organization for clinical oncologists in Georgia, so it would make sense for the board to include experts in the field.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with academic institutions, pharmaceutical companies, and other organizations to conduct clinical trials and research studies to improve cancer treatment options.</t>
+  </si>
+  <si>
+    <t>No, GASCO is primarily focused on education and advocacy for oncology professionals in Georgia.</t>
+  </si>
+  <si>
+    <t>No, GASCO does not include top therapeutic area experts on its board. The organization focuses on representing clinical oncologists in Georgia, rather than experts from specific therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does encompasses community sites, FLASCO's membership primarily consists of academic and hospital-based oncologists and hematologists.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO is a professional organization focused on clinical oncology and does play a significant role in shaping state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, FLASCO does provides support for clinical trial recruitment. FLASCO is an organization that focuses on education, advocacy, and networking for oncology professionals in Florida.</t>
+  </si>
+  <si>
+    <t>Yes, The FLASCO board does includes top therapeutic area experts, most of them are practicing oncologists from various specialties.</t>
+  </si>
+  <si>
     <t>PSOH (Pennsylvania Society of Oncology and Hematology)</t>
   </si>
   <si>
+    <t>Yes, PSOH does encompass community sites. Community sites are an important part of cancer care and treatment.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily focused on education, research, and advocacy at the national level, not state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, The PSOH provides engagement opportunities with leadership through various events and programs.</t>
+  </si>
+  <si>
+    <t>Yes, PSOH does provide support for clinical trial recruitment, as they often collaborate with researchers and institutions to help connect patients with appropriate clinical trials.</t>
+  </si>
+  <si>
+    <t>No, PSOH does not provide engagement opportunity with payors. PSOH is primarily a professional society for oncologists and hematologists, focused on education, research, and collaboration within the field, rather than facilitating interactions with payors.</t>
+  </si>
+  <si>
+    <t>Yes,  The board of PSOH likely includes area experts in the fields of oncology and hematology to guide and support the organization's mission.</t>
+  </si>
+  <si>
+    <t>No, PSOH is primarily a professional organization focused on education and advocacy for oncologists and hematologists, not therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>Yes, the board of PSOH includes top therapeutic area experts. Members of PSOH's board are leaders in the field of oncology and hematology, bringing their expertise to guide the organization.</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
     <t>WVOS (West Virginia Oncology Society)</t>
   </si>
   <si>
+    <t>No, WVOS does not encompass community sites, as it specifically focuses on oncology services within West Virginia.</t>
+  </si>
+  <si>
+    <t>No, There is no evidence of WVOS influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with leadership. WVOS focuses primarily on education and support for oncology professionals rather than leadership development.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS is primarily focused on education and advocacy for oncology professionals in West Virginia.</t>
+  </si>
+  <si>
+    <t>No, WVOS does not provide engagement opportunity with payors. WVOS is a professional organization for oncology professionals and focuses on education, advocacy, and networking within the field of oncology.</t>
+  </si>
+  <si>
+    <t>No, The West Virginia Oncology Society does not include area experts on its board. The organization primarily consists of healthcare professionals who specialize in treating cancer rather than non-medical experts.</t>
+  </si>
+  <si>
+    <t>No, lack of information.</t>
+  </si>
+  <si>
+    <t>Yes, the WVOS includes top therapeutic area experts on its board. , The WVOS board members are oncology specialists who bring expertise and knowledge in the field of cancer treatment.</t>
+  </si>
+  <si>
+    <t>ESHOS (Empire State Hematology Oncology Society)</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
     <t>DSCO (Delaware Society of Clinical Oncology)</t>
   </si>
   <si>
+    <t>Yes, DSCO encompasses community sites because they are part of the oncology network in Delaware.</t>
+  </si>
+  <si>
+    <t>No, , DSCO is more focused on providing education and networking opportunities for oncology professionals rather than lobbying for policy change.</t>
+  </si>
+  <si>
+    <t>No, 
+DSCO does not provide direct engagement opportunities with its leadership, as it is focused on providing clinical oncology services and support to its members.</t>
+  </si>
+  <si>
+    <t>No, , DSCO does not provide support for clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, DSCO does not provide engagement opportunities with payors. , The primary focus of DSCO is on clinical oncology practices and the advancement of cancer care rather than engaging with payors.</t>
+  </si>
+  <si>
+    <t>Yes, the organization's board likely includes area experts in the field of clinical oncology to ensure expertise and guidance in decision-making.</t>
+  </si>
+  <si>
+    <t>No, DSCO focuses primarily on education and advocacy for clinical oncology professionals in Delaware.</t>
+  </si>
+  <si>
+    <t>No, the DSCO may not include top therapeutic area experts on its board.
+Justification: There is no specific information available to confirm the presence of top therapeutic area experts on the board of DSCO.</t>
+  </si>
+  <si>
     <t>OSNJ (Oncology Society of New Jersey)</t>
   </si>
   <si>
-    <t>ESHOS (Empire State Hematology Oncology Society)</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not encompass community sites. FLASCO is focused on providing a forum for education and networking for oncology professionals in Florida, primarily within academic and research institutions.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not encompass community sites, as it focuses on clinical oncology practices.</t>
-  </si>
-  <si>
-    <t>Yes, PSOH encompasses community sites as they work with oncology and hematology practices throughout the state of Pennsylvania.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not encompass community sites as it focuses on oncology-related issues specifically within the state of West Virginia.</t>
-  </si>
-  <si>
-    <t>No, DSCO does not encompass community sites as it is specifically focused on clinical oncology.</t>
-  </si>
-  <si>
-    <t>No, OSNJ mostly focuses on academic medical centers and large hospital-based cancer centers.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not encompass community sites. ESHOS focuses on hematology and oncology centers in the state of New York, rather than community-based practices.</t>
-  </si>
-  <si>
-    <t>No, FLASCO is not influential on state or local policy, as their primary focus is on providing education and resources for clinical oncologists rather than advocating for policy changes.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not have a significant influence on state or local policy. While they may provide input or recommendations, they are not a primary decision-making body for policy changes.</t>
-  </si>
-  <si>
-    <t>No, PSOH is not influential on state or local policy, as they primarily focus on education and advocacy within the field of oncology and hematology.</t>
-  </si>
-  <si>
-    <t>No, WVOS is primarily focused on education, research, and advocacy at a local level.</t>
-  </si>
-  <si>
-    <t>No, , DSCO is primarily focused on professional networking, education, and advocacy at the national level through its affiliation with the national organization, ASCO (American Society of Clinical Oncology).</t>
-  </si>
-  <si>
-    <t>No, The OSNJ is primarily focused on education, research, and advancing the practice of oncology in New Jersey.</t>
-  </si>
-  <si>
-    <t>No, ESHOS is primarily focused on education and networking within the field of hematology and oncology , rather than on influencing policy.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO provides engagement opportunities with leadership through various networking events, annual meetings, and conferences.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO provides engagement opportunity with leadership. GASCO regularly holds meetings, conferences, and events that allow members to interact with and learn from key leaders in the field of oncology.</t>
-  </si>
-  <si>
-    <t>Yes, PSOH provides engagement opportunities with leadership; their events, meetings, and conferences provide members with the chance to interact with key leaders in the field.</t>
-  </si>
-  <si>
-    <t>Yes, WVOS provides engagement opportunity with leadership. WVOS offers various forums, events, and networking opportunities for members to connect with and learn from oncology leaders in West Virginia.</t>
-  </si>
-  <si>
-    <t>No, The website does not mention any specific engagement opportunities with leadership, just general membership information and events.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committee involvement.</t>
-  </si>
-  <si>
-    <t>Yes, ESHOS provides engagement opportunity with leadership. This can be seen through networking events, mentorship programs, and interactions at conferences and meetings.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO does provide support for clinical trial recruitment. FLASCO offers resources and assistance to help physicians and patients find and participate in clinical trials.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide support for clinical trial recruitment. GASCO is primarily focused on education, advocacy, and networking for oncology professionals in Georgia, rather than directly supporting patient recruitment for clinical trials.</t>
-  </si>
-  <si>
-    <t>No, PSOH does not provide support for clinical trial recruitment. PSOH is a professional organization for healthcare providers focusing on education and advocacy in oncology and hematology, not directly involved in patient recruitment for clinical trials.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide support for clinical trial recruitment. WVOS focuses on education and advocacy for oncology professionals in West Virginia.</t>
-  </si>
-  <si>
-    <t>Yes, DSCO provides support for clinical trial recruitment, as they collaborate with industry partners and research institutions to promote and facilitate participation in clinical trials.</t>
-  </si>
-  <si>
-    <t>No, OSNJ does not provide support for clinical trial recruitment. OSNJ focuses on educational and networking opportunities for oncology professionals in New Jersey.</t>
-  </si>
-  <si>
-    <t>Yes, ESHOS provides support for clinical trial recruitment. The organization collaborates with academic institutions and industry partners to facilitate access to clinical trials for patients.</t>
-  </si>
-  <si>
-    <t>No, FLASCO does not provide engagement opportunity with payors. FLASCO's focus is on providing education, advocacy, and support for clinical oncology professionals, rather than facilitating interactions with payors.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not provide engagement opportunity with payors. GASCO is a professional organization for oncologists in Georgia and primarily focuses on education, advocacy, and networking within the oncology community rather than engagement with payors.</t>
-  </si>
-  <si>
-    <t>No, PSOH does not engage with payors, as their focus is on oncology and hematology education and advocacy for healthcare professionals.</t>
-  </si>
-  <si>
-    <t>No, WVOS does not provide engagement opportunities with payors. There is no mention of WVOS engaging with payors in their mission statement or any other information available online.</t>
-  </si>
-  <si>
-    <t>No, DSCO does not provide engagement opportunities with payors. , DSCO primarily focuses on education and advocacy for clinical oncologists rather than direct engagement with payors.</t>
-  </si>
-  <si>
-    <t>No, OSNJ does not typically provide engagement opportunities with payors. OSNJ focuses on oncology education and research, rather than payor interactions.</t>
-  </si>
-  <si>
-    <t>No, ESHOS does not provide engagement opportunity with payors as it is a society focused on hematology and oncology education and research.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO includes area experts on its board because its board members are renowned oncology professionals with vast experience and expertise in the field.</t>
-  </si>
-  <si>
-    <t>Yes, GASCO includes area experts on its board. This can be inferred from the fact that GASCO is a professional organization focused on clinical oncology, which would likely require expertise from individuals in the field to effectively provide guidance and leadership.</t>
-  </si>
-  <si>
-    <t>No, PSOH does not have area experts on its board. The society is primarily composed of oncologists and hematologists.</t>
-  </si>
-  <si>
-    <t>Yes, the WVOS includes area experts on its board because they are dedicated to providing quality oncology care in West Virginia.</t>
-  </si>
-  <si>
-    <t>Yes, DSCO includes area experts on its board. The organization typically seeks out individuals with strong clinical oncology backgrounds to serve on its board to ensure that decisions are informed and strategic.</t>
-  </si>
-  <si>
-    <t>Yes, the OSNJ includes area experts on its board to ensure the highest level of expertise and guidance in the field of oncology.</t>
-  </si>
-  <si>
-    <t>Yes, ESHOS includes area experts on its board. This can be inferred from the nature of the organization as a society that focuses on hematology and oncology, which would require expertise in the field.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO is involved in therapeutic research collaborations. FLASCO partners with researchers, pharmaceutical companies, and other healthcare organizations to advance cancer treatment options for patients.</t>
-  </si>
-  <si>
-    <t>No, GASCO is primarily focused on education and advocacy efforts for clinical oncologists in Georgia.</t>
-  </si>
-  <si>
-    <t>No, PSOH is primarily focused on education and networking for healthcare professionals in oncology and hematology.</t>
-  </si>
-  <si>
-    <t>No, WVOS is primarily focused on education and networking among oncology professionals.</t>
-  </si>
-  <si>
-    <t>No, DSCO is a professional society focused on education and advocacy for clinical oncologists, not on research collaborations.</t>
+    <t>Yes, OSNJ encompasses community sites. Community sites are an integral part of providing comprehensive cancer care to patients throughout the state.</t>
+  </si>
+  <si>
+    <t>No, OSNJ is primarily focused on providing education and resources for oncology professionals in New Jersey, rather than influencing state or local policy.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides engagement opportunities with leadership through networking events, conferences, and committees.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ provides support for clinical trial recruitment. OSNJ offers resources and assistance to help connect patients with ongoing clinical trials.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ likely provides engagement opportunities with payors as payor engagement is crucial for navigating the healthcare landscape and ensuring optimal care for patients.</t>
+  </si>
+  <si>
+    <t>Yes,   OSNJ includes area experts on its board to ensure that the organization benefits from a wide range of expertise and perspectives related to oncology in New Jersey.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ is involved in therapeutic research collaborations. OSNJ frequently collaborates with pharmaceutical companies, academic institutions, research organizations, and other medical societies to conduct clinical trials and research studies aimed at advancing cancer treatment and care.</t>
+  </si>
+  <si>
+    <t>Yes, OSNJ includes top therapeutic area experts on its board. The organization is dedicated to promoting excellence in oncology practice and research, so it is likely that top experts in the field would be part of the board.</t>
   </si>
   <si>
     <t>Yes, 
-The OSNJ is involved in therapeutic research collaborations to help advance cancer treatments and care.</t>
-  </si>
-  <si>
-    <t>Yes, 
-Justification: As a professional society primarily focused on hematology and oncology, ESHOS is likely to be involved in therapeutic research collaborations to advance the field and improve patient outcomes.</t>
-  </si>
-  <si>
-    <t>Yes, FLASCO includes top therapeutic area experts on its board. FLASCO's board is composed of leading oncology professionals who specialize in various therapeutic areas within the field of oncology.</t>
-  </si>
-  <si>
-    <t>No, GASCO does not include top therapeutic area experts on its board , as there is no specific information provided to confirm this.</t>
-  </si>
-  <si>
-    <t>No, lack expertise on the board.</t>
-  </si>
-  <si>
-    <t>Yes, The board of WVOS includes top therapeutic area experts who are knowledgeable and experienced in the field of oncology.</t>
-  </si>
-  <si>
-    <t>Yes, 
-Many oncology experts are part of the DSCO board, providing valuable insights and expertise in the field.</t>
-  </si>
-  <si>
-    <t>Yes, OSNJ includes top therapeutic area experts on its board. This can be seen in the organization's commitment to providing the most current and effective treatment options for cancer patients in New Jersey.</t>
-  </si>
-  <si>
-    <t>No, the board of ESHOS does not include top therapeutic area experts. The website does not list specific board members or their expertise in the field.</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>South.</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
+The ESHOS encompasses community sites as it aims to promote hematology and oncology education, research, and care across the state of New York, including community-based practices.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not have a direct influence on state or local policy as it is a medical society focused on hematology and oncology, not policy advocacy.</t>
+  </si>
+  <si>
+    <t>Yes, ESHOS provides engagement opportunities with leadership. This can be seen through various initiatives such as leadership forums, mentorship programs, and networking events that allow members to interact with and learn from established leaders in the field of hematology and oncology.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide support for clinical trial recruitment., ESHOS focuses on education and networking opportunities for hematologists and oncologists, rather than facilitating clinical trial recruitment.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not provide engagement opportunity with payors. ESHOS focuses on education and support for hematology and oncology professionals, not collaboration with payors.</t>
+  </si>
+  <si>
+    <t>Yes, The board of ESHOS includes area experts in the field of hematology and oncology, providing a diverse range of perspectives and knowledge.</t>
+  </si>
+  <si>
+    <t>No, ESHOS is primarily a professional organization focused on education and networking for hematology and oncology practitioners, rather than directly involved in therapeutic research collaborations.</t>
+  </si>
+  <si>
+    <t>No, ESHOS does not include top therapeutic area experts on its board. , As ESHOS is focused on hematology and oncology, it is likely that the board consists of experts in those specific fields rather than across all therapeutic areas.</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
   </si>
   <si>
     <t>Delaware</t>
-  </si>
-  <si>
-    <t>Northeastern United States.</t>
-  </si>
-  <si>
-    <t>New York</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,17 +323,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,9 +421,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,6 +456,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -637,14 +632,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,249 +676,249 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>4100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>3200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I3" t="s">
+      <c r="B7" s="2">
+        <v>1649</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="K4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="K8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="1745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1721">
   <si>
     <t>Society Name</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Dava Oncology, LP</t>
   </si>
   <si>
-    <t>Seven</t>
-  </si>
-  <si>
     <t>Yes, Dava Oncology, LP encompasses community sites. Community oncology sites are medical facilities that provide chemotherapy and other cancer treatments to patients in local communities.</t>
   </si>
   <si>
@@ -589,9 +586,6 @@
     <t>THE MEDICAL EDUCATOR CONSORTIUM INC.</t>
   </si>
   <si>
-    <t>Twelve</t>
-  </si>
-  <si>
     <t>No, , THE MEDICAL EDUCATOR CONSORTIUM INC. is focused on medical education and does not include community sites.</t>
   </si>
   <si>
@@ -928,9 +922,6 @@
     <t>Intellisphere, LLC | Oncology Specialty Group</t>
   </si>
   <si>
-    <t>zero</t>
-  </si>
-  <si>
     <t>No, , Intellisphere, LLC | Oncology Specialty Group is focused on specialty oncology practices and does not specifically mention community sites in its name or description.</t>
   </si>
   <si>
@@ -1083,9 +1074,6 @@
     <t>American Society for Mohs Surgery</t>
   </si>
   <si>
-    <t>850.</t>
-  </si>
-  <si>
     <t>No, , the American Society for Mohs Surgery focuses on specialized dermatologic surgery and does not typically encompass community sites.</t>
   </si>
   <si>
@@ -1144,9 +1132,6 @@
   </si>
   <si>
     <t>Southern Baptist Hospital of Florida Inc</t>
-  </si>
-  <si>
-    <t>Six.</t>
   </si>
   <si>
     <t>No, The Southern Baptist Hospital of Florida Inc does not encompass community sites. The hospital is a standalone facility that primarily serves the local community.</t>
@@ -1361,9 +1346,6 @@
     <t>Boca Raton Regional Hospital Foundation Inc</t>
   </si>
   <si>
-    <t>Three</t>
-  </si>
-  <si>
     <t>No, the foundation focuses primarily on fundraising for the Boca Raton Regional Hospital and its affiliated programs and services.</t>
   </si>
   <si>
@@ -1576,9 +1558,6 @@
     <t>Allergy Education Partners</t>
   </si>
   <si>
-    <t>Two.</t>
-  </si>
-  <si>
     <t>Yes, community sites can play a crucial role in spreading knowledge and awareness about allergies to a wider audience.</t>
   </si>
   <si>
@@ -1848,9 +1827,6 @@
     <t>The Womens Breast &amp; Heart Initiative Florida Affiliate Inc</t>
   </si>
   <si>
-    <t>Five</t>
-  </si>
-  <si>
     <t>Yes, The Women's Breast &amp; Heart Initiative Florida Affiliate Inc encompasses community sites, as they work to provide education and resources to women in various communities.</t>
   </si>
   <si>
@@ -1939,9 +1915,6 @@
     <t>Harborside Press LLC</t>
   </si>
   <si>
-    <t>Three.</t>
-  </si>
-  <si>
     <t>No, Harborside Press LLC is a medical publishing company focused on peer-reviewed medical journals and publications.</t>
   </si>
   <si>
@@ -2224,9 +2197,6 @@
     <t>Susan G. Komen Breast Cancer Foundation, Inc., National Office</t>
   </si>
   <si>
-    <t>Four</t>
-  </si>
-  <si>
     <t>No, The National Office does not encompass community sites. The National Office serves as the central administrative headquarters for the organization and provides support to local affiliates and community sites.</t>
   </si>
   <si>
@@ -2285,9 +2255,6 @@
     <t>American Cancer Society, Inc.</t>
   </si>
   <si>
-    <t>1.5 million</t>
-  </si>
-  <si>
     <t>Yes, American Cancer Society, Inc. covers community sites as it aims to provide support and resources to individuals affected by cancer in various neighborhoods and settings.</t>
   </si>
   <si>
@@ -2406,9 +2373,6 @@
     <t>Southern Thoracic Surgical Association Inc</t>
   </si>
   <si>
-    <t>One</t>
-  </si>
-  <si>
     <t>Yes, 
 Community sites are encompassed because STSA Inc is a regional organization that includes hospitals and medical centers in the Southern United States, which serve local communities.</t>
   </si>
@@ -2500,9 +2464,6 @@
     <t>Tallahassee Memorial Healthcare Foundation Inc</t>
   </si>
   <si>
-    <t>Over 3,000</t>
-  </si>
-  <si>
     <t>No, TMH Foundation Inc does not encompass community sites, as it primarily focuses on supporting the Tallahassee Memorial Healthcare system.</t>
   </si>
   <si>
@@ -2746,9 +2707,6 @@
     <t>Baptist Health South Florida Foundation Inc</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>No,  , The focus of the foundation is on supporting the Baptist Health South Florida system and its related programs, not community sites.</t>
   </si>
   <si>
@@ -2868,9 +2826,6 @@
     <t>Community Oncology Alliance Inc</t>
   </si>
   <si>
-    <t>108.</t>
-  </si>
-  <si>
     <t>Yes, COA's mission is to support and advocate for community oncology practices.</t>
   </si>
   <si>
@@ -3076,9 +3031,6 @@
     <t>Palm Beach Cancer Institute Foundation Inc</t>
   </si>
   <si>
-    <t>Zero</t>
-  </si>
-  <si>
     <t>No, The Palm Beach Cancer Institute Foundation Inc does not encompass community sites. , The organization is focused on providing cancer care services and support within their own facility.</t>
   </si>
   <si>
@@ -3352,9 +3304,6 @@
     <t>Tampa Alumni Chapter of Kappa Alpha Psi Fraternity inc</t>
   </si>
   <si>
-    <t>Seventy.</t>
-  </si>
-  <si>
     <t>Yes, The Tampa Alumni Chapter of Kappa Alpha Psi Fraternity Inc. does encompass community sites. They engage with and support various community organizations and events.</t>
   </si>
   <si>
@@ -3506,9 +3455,6 @@
     <t>Black Health Matters Foundation Inc</t>
   </si>
   <si>
-    <t>Two</t>
-  </si>
-  <si>
     <t>No, because they focus on global health issues.</t>
   </si>
   <si>
@@ -4102,9 +4048,6 @@
     <t>Baptist Health Foundation</t>
   </si>
   <si>
-    <t>Four.</t>
-  </si>
-  <si>
     <t>No, Baptist Health Foundation mainly focuses on supporting Baptist Health facilities and the programs and services they provide, rather than community sites.</t>
   </si>
   <si>
@@ -4490,9 +4433,6 @@
     <t>Ultimate Opinions in Medicine, LLC; dba PresiCa</t>
   </si>
   <si>
-    <t>Eight.</t>
-  </si>
-  <si>
     <t>No, PresiCa does not encompass community sites. , It is focused on providing medical opinions and services.</t>
   </si>
   <si>
@@ -4668,9 +4608,6 @@
   </si>
   <si>
     <t>HealthTrust Purchasing Group, LP</t>
-  </si>
-  <si>
-    <t>1900.</t>
   </si>
   <si>
     <t>No, HealthTrust Purchasing Group, LP does not encompass community sites. The company mainly focuses on providing services for acute care facilities.</t>
@@ -4912,9 +4849,6 @@
     <t>Fellows Forum Inc</t>
   </si>
   <si>
-    <t>103.</t>
-  </si>
-  <si>
     <t>No, Fellows Forum Inc does not encompass community sites. The company is primarily focused on providing training and education for medical professionals.</t>
   </si>
   <si>
@@ -4999,9 +4933,6 @@
     <t>Asociacion de Hematologia Y Oncologia Medica de PR</t>
   </si>
   <si>
-    <t>About 150</t>
-  </si>
-  <si>
     <t>No, , Asociacion de Hematologia Y Oncologia Medica de PR is a professional medical organization focusing on hematology and oncology, not community sites.</t>
   </si>
   <si>
@@ -5117,9 +5048,6 @@
   </si>
   <si>
     <t>Central Florida Health Care Coalition, Incorporated (Florida Alliance for Healthcare Value)</t>
-  </si>
-  <si>
-    <t>60.</t>
   </si>
   <si>
     <t>No, the organization primarily focuses on employer healthcare value initiatives, rather than community sites.</t>
@@ -5374,12 +5302,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5686,11 +5615,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -5801,102 +5733,102 @@
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2">
+        <v>700</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>10</v>
@@ -5904,174 +5836,174 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>10</v>
@@ -6079,139 +6011,139 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>11</v>
@@ -6219,279 +6151,279 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="K17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="2">
+        <v>120</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="K19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="K22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>10</v>
@@ -6499,279 +6431,279 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="K24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="K26" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="K27" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="K28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" s="2">
+        <v>100</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="I29" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="K29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>10</v>
@@ -6779,69 +6711,69 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>37</v>
@@ -6849,209 +6781,209 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B34" s="2">
+        <v>850</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="K34" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" s="2">
+        <v>600</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="K36" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="K37" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="K38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>10</v>
@@ -7059,34 +6991,34 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>10</v>
@@ -7094,34 +7026,34 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>12</v>
@@ -7129,34 +7061,34 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>10</v>
@@ -7164,34 +7096,34 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B43" s="2">
+        <v>300</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>10</v>
@@ -7199,34 +7131,34 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>37</v>
@@ -7234,34 +7166,34 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>37</v>
@@ -7269,139 +7201,139 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="K46" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="K47" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>37</v>
@@ -7409,104 +7341,104 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B50" s="2">
+        <v>200</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="K50" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="K51" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>10</v>
@@ -7514,69 +7446,69 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>10</v>
@@ -7584,174 +7516,174 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B55" s="2">
+        <v>700</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>569</v>
-      </c>
       <c r="K55" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="K56" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>582</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="K58" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B59" s="2">
+        <v>500</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>10</v>
@@ -7759,139 +7691,139 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>619</v>
-      </c>
       <c r="K60" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>629</v>
-      </c>
       <c r="K61" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B62" s="2">
+        <v>300</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>10</v>
@@ -7899,69 +7831,69 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>660</v>
-      </c>
       <c r="K64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>10</v>
@@ -7969,384 +7901,384 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>691</v>
-      </c>
       <c r="K67" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>701</v>
-      </c>
       <c r="K68" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>725</v>
+        <v>715</v>
+      </c>
+      <c r="B71" s="2">
+        <v>400</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>745</v>
+        <v>734</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1500000</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>10</v>
@@ -8354,489 +8286,489 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>785</v>
+        <v>773</v>
+      </c>
+      <c r="B77" s="2">
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>631</v>
+        <v>794</v>
+      </c>
+      <c r="B79" s="2">
+        <v>300</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>816</v>
+        <v>803</v>
+      </c>
+      <c r="B80" s="3">
+        <v>3000</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>441</v>
+        <v>845</v>
+      </c>
+      <c r="B84" s="2">
+        <v>300</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>601</v>
+        <v>874</v>
+      </c>
+      <c r="B87" s="2">
+        <v>500</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>897</v>
+        <v>883</v>
+      </c>
+      <c r="B88" s="2">
+        <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>10</v>
@@ -8844,244 +8776,244 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>937</v>
+        <v>922</v>
+      </c>
+      <c r="B92" s="2">
+        <v>108</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>938</v>
+        <v>923</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>939</v>
+        <v>924</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>940</v>
+        <v>925</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>941</v>
+        <v>926</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>943</v>
+        <v>928</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>944</v>
+        <v>929</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>946</v>
+        <v>931</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>949</v>
+        <v>934</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>950</v>
+        <v>935</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>953</v>
+        <v>938</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>954</v>
+        <v>939</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>955</v>
+        <v>940</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>956</v>
+        <v>941</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>970</v>
+        <v>955</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>785</v>
+        <v>959</v>
+      </c>
+      <c r="B96" s="2">
+        <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>977</v>
+        <v>962</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>979</v>
+        <v>964</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>982</v>
+        <v>967</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>983</v>
+        <v>968</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>984</v>
+        <v>969</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>985</v>
+        <v>970</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>986</v>
+        <v>971</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>988</v>
+        <v>973</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>989</v>
+        <v>974</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>990</v>
+        <v>975</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>991</v>
+        <v>976</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>992</v>
+        <v>977</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>10</v>
@@ -9089,69 +9021,69 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>994</v>
+        <v>979</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>995</v>
+        <v>980</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>996</v>
+        <v>981</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>997</v>
+        <v>982</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>1005</v>
+        <v>989</v>
+      </c>
+      <c r="B99" s="2">
+        <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>1008</v>
+        <v>992</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>1013</v>
+        <v>997</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>10</v>
@@ -9159,419 +9091,419 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>1014</v>
+        <v>998</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1017</v>
+        <v>1001</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>1018</v>
+        <v>1002</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>1033</v>
+        <v>1017</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>1042</v>
+        <v>1026</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>631</v>
+        <v>1029</v>
+      </c>
+      <c r="B103" s="2">
+        <v>300</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1048</v>
+        <v>1032</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>1050</v>
+        <v>1034</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>1051</v>
+        <v>1035</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>1052</v>
+        <v>1036</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>1053</v>
+        <v>1037</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>1054</v>
+        <v>1038</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1055</v>
+        <v>1039</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1056</v>
+        <v>1040</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1057</v>
+        <v>1041</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1058</v>
+        <v>1042</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>1059</v>
+        <v>1043</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>1061</v>
+        <v>1045</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>1063</v>
+        <v>1047</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>1064</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>725</v>
+        <v>1049</v>
+      </c>
+      <c r="B105" s="2">
+        <v>400</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1066</v>
+        <v>1050</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1067</v>
+        <v>1051</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>1068</v>
+        <v>1052</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>1071</v>
+        <v>1055</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1076</v>
+        <v>1060</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1077</v>
+        <v>1061</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1078</v>
+        <v>1062</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1079</v>
+        <v>1063</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>1080</v>
+        <v>1064</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>1081</v>
+        <v>1065</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>1082</v>
+        <v>1066</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>1083</v>
+        <v>1067</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1086</v>
+        <v>1070</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1087</v>
+        <v>1071</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>1088</v>
+        <v>1072</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>1089</v>
+        <v>1073</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>1090</v>
+        <v>1074</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>1092</v>
+        <v>1076</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>1095</v>
+        <v>1078</v>
+      </c>
+      <c r="B108" s="2">
+        <v>700</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1107</v>
+        <v>1090</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>1121</v>
+        <v>1104</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1127</v>
+        <v>1110</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1130</v>
+        <v>1113</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>1134</v>
+        <v>1117</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>10</v>
@@ -9579,279 +9511,279 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1136</v>
+        <v>1119</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1140</v>
+        <v>1123</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>1142</v>
+        <v>1125</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>1143</v>
+        <v>1126</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>1144</v>
+        <v>1127</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>1146</v>
+        <v>1128</v>
+      </c>
+      <c r="B113" s="2">
+        <v>200</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1147</v>
+        <v>1129</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1148</v>
+        <v>1130</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>1149</v>
+        <v>1131</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1151</v>
+        <v>1133</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>1152</v>
+        <v>1134</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>1153</v>
+        <v>1135</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>1154</v>
+        <v>1136</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>1155</v>
+        <v>1137</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1156</v>
+        <v>1138</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1157</v>
+        <v>1139</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1158</v>
+        <v>1140</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>1159</v>
+        <v>1141</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>1161</v>
+        <v>1143</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>1162</v>
+        <v>1144</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>1163</v>
+        <v>1145</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>1164</v>
+        <v>1146</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>1165</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1167</v>
+        <v>1149</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1168</v>
+        <v>1150</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>1171</v>
+        <v>1153</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1172</v>
+        <v>1154</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>1173</v>
+        <v>1155</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>1174</v>
+        <v>1156</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>1175</v>
+        <v>1157</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>1203</v>
+        <v>1185</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>1204</v>
+        <v>1186</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>1205</v>
+        <v>1187</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>1206</v>
+        <v>1188</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1207</v>
+        <v>1189</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1208</v>
+        <v>1190</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1209</v>
+        <v>1191</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>1211</v>
+        <v>1193</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>1212</v>
+        <v>1194</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>1213</v>
+        <v>1195</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>1214</v>
+        <v>1196</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>1215</v>
+        <v>1197</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>10</v>
@@ -9859,104 +9791,104 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>1216</v>
+        <v>1198</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1218</v>
+        <v>1200</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>1219</v>
+        <v>1201</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>1221</v>
+        <v>1203</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>1222</v>
+        <v>1204</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>1223</v>
+        <v>1205</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>1224</v>
+        <v>1206</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>1225</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>1226</v>
+        <v>1208</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1227</v>
+        <v>1209</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1228</v>
+        <v>1210</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1229</v>
+        <v>1211</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>1230</v>
+        <v>1212</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>1231</v>
+        <v>1213</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>1232</v>
+        <v>1214</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>1234</v>
+        <v>1216</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>1235</v>
+        <v>1217</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>1236</v>
+        <v>1218</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1238</v>
+        <v>1220</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1239</v>
+        <v>1221</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>1240</v>
+        <v>1222</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>1241</v>
+        <v>1223</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>1242</v>
+        <v>1224</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>1243</v>
+        <v>1225</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>1244</v>
+        <v>1226</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>1245</v>
+        <v>1227</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>14</v>
@@ -9964,419 +9896,419 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>441</v>
+        <v>1228</v>
+      </c>
+      <c r="B123" s="2">
+        <v>300</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1247</v>
+        <v>1229</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1248</v>
+        <v>1230</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>1249</v>
+        <v>1231</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>1250</v>
+        <v>1232</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>1251</v>
+        <v>1233</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>1252</v>
+        <v>1234</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>1253</v>
+        <v>1235</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>1254</v>
+        <v>1236</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>1255</v>
+        <v>1237</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1256</v>
+        <v>1238</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1257</v>
+        <v>1239</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>1259</v>
+        <v>1241</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>1260</v>
+        <v>1242</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>1261</v>
+        <v>1243</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>1262</v>
+        <v>1244</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>1263</v>
+        <v>1245</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>1264</v>
+        <v>1246</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1265</v>
+        <v>1247</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1266</v>
+        <v>1248</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1267</v>
+        <v>1249</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>1268</v>
+        <v>1250</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>1269</v>
+        <v>1251</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>1270</v>
+        <v>1252</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>1271</v>
+        <v>1253</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>1272</v>
+        <v>1254</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>1273</v>
+        <v>1255</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>1274</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>1275</v>
+        <v>1257</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1276</v>
+        <v>1258</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1277</v>
+        <v>1259</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>1278</v>
+        <v>1260</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>1279</v>
+        <v>1261</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>1280</v>
+        <v>1262</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>1281</v>
+        <v>1263</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>1282</v>
+        <v>1264</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>1283</v>
+        <v>1265</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>1284</v>
+        <v>1266</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1285</v>
+        <v>1267</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1286</v>
+        <v>1268</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1287</v>
+        <v>1269</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>1288</v>
+        <v>1270</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>1289</v>
+        <v>1271</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1290</v>
+        <v>1272</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>1291</v>
+        <v>1273</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>1292</v>
+        <v>1274</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>1293</v>
+        <v>1275</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>1294</v>
+        <v>1276</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1295</v>
+        <v>1277</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1296</v>
+        <v>1278</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>1297</v>
+        <v>1279</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>1298</v>
+        <v>1280</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>1299</v>
+        <v>1281</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>1301</v>
+        <v>1283</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>1302</v>
+        <v>1284</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>1303</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>1304</v>
+        <v>1286</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1305</v>
+        <v>1287</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1306</v>
+        <v>1288</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>1307</v>
+        <v>1289</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1308</v>
+        <v>1290</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>1309</v>
+        <v>1291</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>1310</v>
+        <v>1292</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>1311</v>
+        <v>1293</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>1312</v>
+        <v>1294</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>1313</v>
+        <v>1295</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1314</v>
+        <v>1296</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>1315</v>
+        <v>1297</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1316</v>
+        <v>1298</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>1317</v>
+        <v>1299</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>1318</v>
+        <v>1300</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>1319</v>
+        <v>1301</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>1320</v>
+        <v>1302</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>1321</v>
+        <v>1303</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1322</v>
+        <v>1304</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1323</v>
+        <v>1305</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1324</v>
+        <v>1306</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>1325</v>
+        <v>1307</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1326</v>
+        <v>1308</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>1327</v>
+        <v>1309</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>1328</v>
+        <v>1310</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>1329</v>
+        <v>1311</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>1330</v>
+        <v>1312</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>1331</v>
+        <v>1313</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1333</v>
+        <v>1315</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>1334</v>
+        <v>1316</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>1335</v>
+        <v>1317</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1336</v>
+        <v>1318</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>1337</v>
+        <v>1319</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>1338</v>
+        <v>1320</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>1339</v>
+        <v>1321</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>1340</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>1342</v>
+        <v>1323</v>
+      </c>
+      <c r="B133" s="2">
+        <v>400</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1343</v>
+        <v>1324</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1344</v>
+        <v>1325</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>1345</v>
+        <v>1326</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1346</v>
+        <v>1327</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>1348</v>
+        <v>1329</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>1349</v>
+        <v>1330</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>1350</v>
+        <v>1331</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>1351</v>
+        <v>1332</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1352</v>
+        <v>1333</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1353</v>
+        <v>1334</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1354</v>
+        <v>1335</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>1355</v>
+        <v>1336</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>1356</v>
+        <v>1337</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>1359</v>
+        <v>1340</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>1360</v>
+        <v>1341</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>10</v>
@@ -10384,524 +10316,524 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>1361</v>
+        <v>1342</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1362</v>
+        <v>1343</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1363</v>
+        <v>1344</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1364</v>
+        <v>1345</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1365</v>
+        <v>1346</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1366</v>
+        <v>1347</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1367</v>
+        <v>1348</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>1368</v>
+        <v>1349</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>1369</v>
+        <v>1350</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>1370</v>
+        <v>1351</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>1371</v>
+        <v>1352</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1372</v>
+        <v>1353</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1373</v>
+        <v>1354</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1374</v>
+        <v>1355</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>1375</v>
+        <v>1356</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1376</v>
+        <v>1357</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1377</v>
+        <v>1358</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>1378</v>
+        <v>1359</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>1379</v>
+        <v>1360</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>1380</v>
+        <v>1361</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>1381</v>
+        <v>1362</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1382</v>
+        <v>1363</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1383</v>
+        <v>1364</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>1384</v>
+        <v>1365</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1385</v>
+        <v>1366</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>1386</v>
+        <v>1367</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>1387</v>
+        <v>1368</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>1388</v>
+        <v>1369</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>1389</v>
+        <v>1370</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>1390</v>
+        <v>1371</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1391</v>
+        <v>1372</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1392</v>
+        <v>1373</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>1393</v>
+        <v>1374</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1394</v>
+        <v>1375</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>1395</v>
+        <v>1376</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>1396</v>
+        <v>1377</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>1397</v>
+        <v>1378</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>1398</v>
+        <v>1379</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>1399</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>1400</v>
+        <v>1381</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1401</v>
+        <v>1382</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1402</v>
+        <v>1383</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1403</v>
+        <v>1384</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>1404</v>
+        <v>1385</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1405</v>
+        <v>1386</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1406</v>
+        <v>1387</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>1407</v>
+        <v>1388</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>1408</v>
+        <v>1389</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>1409</v>
+        <v>1390</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>1410</v>
+        <v>1391</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1411</v>
+        <v>1392</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1412</v>
+        <v>1393</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1413</v>
+        <v>1394</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>1414</v>
+        <v>1395</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>1415</v>
+        <v>1396</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1416</v>
+        <v>1397</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1417</v>
+        <v>1398</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>1418</v>
+        <v>1399</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>1419</v>
+        <v>1400</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>1420</v>
+        <v>1401</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1421</v>
+        <v>1402</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1422</v>
+        <v>1403</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1423</v>
+        <v>1404</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>1424</v>
+        <v>1405</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1425</v>
+        <v>1406</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1426</v>
+        <v>1407</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1427</v>
+        <v>1408</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>1428</v>
+        <v>1409</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>1429</v>
+        <v>1410</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>1430</v>
+        <v>1411</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1431</v>
+        <v>1412</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1432</v>
+        <v>1413</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1433</v>
+        <v>1414</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>1434</v>
+        <v>1415</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1435</v>
+        <v>1416</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>1436</v>
+        <v>1417</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1437</v>
+        <v>1418</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>1438</v>
+        <v>1419</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>1439</v>
+        <v>1420</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>1440</v>
+        <v>1421</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1411</v>
+        <v>1392</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1441</v>
+        <v>1422</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1442</v>
+        <v>1423</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>1443</v>
+        <v>1424</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1444</v>
+        <v>1425</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1445</v>
+        <v>1426</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1446</v>
+        <v>1427</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>1447</v>
+        <v>1428</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>1448</v>
+        <v>1429</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>1449</v>
+        <v>1430</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1450</v>
+        <v>1431</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1451</v>
+        <v>1432</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1452</v>
+        <v>1433</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>1453</v>
+        <v>1434</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1454</v>
+        <v>1435</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1455</v>
+        <v>1436</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1456</v>
+        <v>1437</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>1457</v>
+        <v>1438</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>1458</v>
+        <v>1439</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>1459</v>
+        <v>1440</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1460</v>
+        <v>1441</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1461</v>
+        <v>1442</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1462</v>
+        <v>1443</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>1463</v>
+        <v>1444</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1464</v>
+        <v>1445</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1465</v>
+        <v>1446</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1466</v>
+        <v>1447</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>1467</v>
+        <v>1448</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>1468</v>
+        <v>1449</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>1470</v>
+        <v>1450</v>
+      </c>
+      <c r="B146" s="2">
+        <v>800</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1471</v>
+        <v>1451</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1472</v>
+        <v>1452</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>1473</v>
+        <v>1453</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>1474</v>
+        <v>1454</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1475</v>
+        <v>1455</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1476</v>
+        <v>1456</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>1477</v>
+        <v>1457</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>1478</v>
+        <v>1458</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>1479</v>
+        <v>1459</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1480</v>
+        <v>1460</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1481</v>
+        <v>1461</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1482</v>
+        <v>1462</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>1483</v>
+        <v>1463</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1484</v>
+        <v>1464</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1485</v>
+        <v>1465</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1486</v>
+        <v>1466</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>1487</v>
+        <v>1467</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>1488</v>
+        <v>1468</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>1489</v>
+        <v>1469</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1490</v>
+        <v>1470</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1491</v>
+        <v>1471</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1492</v>
+        <v>1472</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>1493</v>
+        <v>1473</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1494</v>
+        <v>1474</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1495</v>
+        <v>1475</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1496</v>
+        <v>1476</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>1497</v>
+        <v>1477</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>1498</v>
+        <v>1478</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>1499</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1501</v>
+        <v>1481</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1502</v>
+        <v>1482</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>1503</v>
+        <v>1483</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1504</v>
+        <v>1484</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1505</v>
+        <v>1485</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1506</v>
+        <v>1486</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>1507</v>
+        <v>1487</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>1508</v>
+        <v>1488</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>10</v>
@@ -10909,489 +10841,489 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>1509</v>
+        <v>1489</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1510</v>
+        <v>1490</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1511</v>
+        <v>1491</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>1512</v>
+        <v>1492</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>1513</v>
+        <v>1493</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1514</v>
+        <v>1494</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1515</v>
+        <v>1495</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>1516</v>
+        <v>1496</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>1517</v>
+        <v>1497</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>1518</v>
+        <v>1498</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1519</v>
+        <v>1499</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1520</v>
+        <v>1500</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1521</v>
+        <v>1501</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>1522</v>
+        <v>1502</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1523</v>
+        <v>1503</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1524</v>
+        <v>1504</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1525</v>
+        <v>1505</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>1526</v>
+        <v>1506</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>1527</v>
+        <v>1507</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>1528</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>1530</v>
+        <v>1509</v>
+      </c>
+      <c r="B152" s="2">
+        <v>1900</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1531</v>
+        <v>1510</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1532</v>
+        <v>1511</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>1533</v>
+        <v>1512</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1534</v>
+        <v>1513</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1535</v>
+        <v>1514</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1536</v>
+        <v>1515</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>1537</v>
+        <v>1516</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1538</v>
+        <v>1517</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>1539</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>1540</v>
+        <v>1519</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1541</v>
+        <v>1520</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1542</v>
+        <v>1521</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1543</v>
+        <v>1522</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>1544</v>
+        <v>1523</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1545</v>
+        <v>1524</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1546</v>
+        <v>1525</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1547</v>
+        <v>1526</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>1548</v>
+        <v>1527</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>1549</v>
+        <v>1528</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>1550</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>1551</v>
+        <v>1530</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1552</v>
+        <v>1531</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1553</v>
+        <v>1532</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1554</v>
+        <v>1533</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>1555</v>
+        <v>1534</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>1556</v>
+        <v>1535</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1557</v>
+        <v>1536</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1558</v>
+        <v>1537</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>1559</v>
+        <v>1538</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>1560</v>
+        <v>1539</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>1561</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>1562</v>
+        <v>1541</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1563</v>
+        <v>1542</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1564</v>
+        <v>1543</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1565</v>
+        <v>1544</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>1566</v>
+        <v>1545</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>1567</v>
+        <v>1546</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1568</v>
+        <v>1547</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>1569</v>
+        <v>1548</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>1570</v>
+        <v>1549</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>1571</v>
+        <v>1550</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>441</v>
+        <v>1551</v>
+      </c>
+      <c r="B156" s="2">
+        <v>300</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1573</v>
+        <v>1552</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1574</v>
+        <v>1553</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>1576</v>
+        <v>1555</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>1577</v>
+        <v>1556</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>1578</v>
+        <v>1557</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>1579</v>
+        <v>1558</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>1581</v>
+        <v>1560</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1582</v>
+        <v>1561</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1583</v>
+        <v>1562</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>1584</v>
+        <v>1563</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>1585</v>
+        <v>1564</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1586</v>
+        <v>1565</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>1587</v>
+        <v>1566</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>1588</v>
+        <v>1567</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>1590</v>
+        <v>1569</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>725</v>
+        <v>1570</v>
+      </c>
+      <c r="B158" s="2">
+        <v>400</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>1592</v>
+        <v>1571</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1593</v>
+        <v>1572</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>1594</v>
+        <v>1573</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>1595</v>
+        <v>1574</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>1596</v>
+        <v>1575</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>1597</v>
+        <v>1576</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>1598</v>
+        <v>1577</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>1599</v>
+        <v>1578</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>1600</v>
+        <v>1579</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>1601</v>
+        <v>1580</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1602</v>
+        <v>1581</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>1603</v>
+        <v>1582</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>1604</v>
+        <v>1583</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1605</v>
+        <v>1584</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>1606</v>
+        <v>1585</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>1607</v>
+        <v>1586</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>1608</v>
+        <v>1587</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>1609</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>1610</v>
+        <v>1588</v>
+      </c>
+      <c r="B160" s="2">
+        <v>103</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>1611</v>
+        <v>1589</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1612</v>
+        <v>1590</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>1613</v>
+        <v>1591</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>1614</v>
+        <v>1592</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>1615</v>
+        <v>1593</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>1616</v>
+        <v>1594</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>1617</v>
+        <v>1595</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>1618</v>
+        <v>1596</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>1619</v>
+        <v>1597</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1620</v>
+        <v>1598</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>1621</v>
+        <v>1599</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1622</v>
+        <v>1600</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1623</v>
+        <v>1601</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>1624</v>
+        <v>1602</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>1625</v>
+        <v>1603</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>1626</v>
+        <v>1604</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>1627</v>
+        <v>1605</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>1628</v>
+        <v>1606</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>1629</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>725</v>
+        <v>1607</v>
+      </c>
+      <c r="B162" s="2">
+        <v>400</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>1630</v>
+        <v>1608</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1631</v>
+        <v>1609</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>1632</v>
+        <v>1610</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>1633</v>
+        <v>1611</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>1634</v>
+        <v>1612</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>1635</v>
+        <v>1613</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>1636</v>
+        <v>1614</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>1637</v>
+        <v>1615</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>1639</v>
+        <v>1616</v>
+      </c>
+      <c r="B163" s="2">
+        <v>150</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>1640</v>
+        <v>1617</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1641</v>
+        <v>1618</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>1642</v>
+        <v>1619</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>1643</v>
+        <v>1620</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>1644</v>
+        <v>1621</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>1645</v>
+        <v>1622</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>1646</v>
+        <v>1623</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>1647</v>
+        <v>1624</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>37</v>
@@ -11399,352 +11331,352 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>1648</v>
+        <v>1625</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1649</v>
+        <v>1626</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1650</v>
+        <v>1627</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>1651</v>
+        <v>1628</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>1652</v>
+        <v>1629</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>1653</v>
+        <v>1630</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>1654</v>
+        <v>1631</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>1655</v>
+        <v>1632</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>1656</v>
+        <v>1633</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>1657</v>
+        <v>1634</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>1658</v>
+        <v>1635</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>1659</v>
+        <v>1636</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1660</v>
+        <v>1637</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>1661</v>
+        <v>1638</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>1662</v>
+        <v>1639</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>1663</v>
+        <v>1640</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>1664</v>
+        <v>1641</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>1665</v>
+        <v>1642</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>1666</v>
+        <v>1643</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>1667</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>1668</v>
+        <v>1645</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1669</v>
+        <v>1646</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1670</v>
+        <v>1647</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1671</v>
+        <v>1648</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>1672</v>
+        <v>1649</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>1673</v>
+        <v>1650</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>1674</v>
+        <v>1651</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>1675</v>
+        <v>1652</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>1676</v>
+        <v>1653</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>1677</v>
+        <v>1654</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>1678</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>1679</v>
+        <v>1655</v>
+      </c>
+      <c r="B167" s="2">
+        <v>60</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1680</v>
+        <v>1656</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1681</v>
+        <v>1657</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1682</v>
+        <v>1658</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>1683</v>
+        <v>1659</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>1684</v>
+        <v>1660</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>1685</v>
+        <v>1661</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>981</v>
+        <v>966</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>1686</v>
+        <v>1662</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>1687</v>
+        <v>1663</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1688</v>
+        <v>1664</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1689</v>
+        <v>1665</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1690</v>
+        <v>1666</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1691</v>
+        <v>1667</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>1692</v>
+        <v>1668</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>1693</v>
+        <v>1669</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>1694</v>
+        <v>1670</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>1695</v>
+        <v>1671</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>1696</v>
+        <v>1672</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>1697</v>
+        <v>1673</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1698</v>
+        <v>1674</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1699</v>
+        <v>1675</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1700</v>
+        <v>1676</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1701</v>
+        <v>1677</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>1702</v>
+        <v>1678</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>1703</v>
+        <v>1679</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>1704</v>
+        <v>1680</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>1705</v>
+        <v>1681</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>1706</v>
+        <v>1682</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>1707</v>
+        <v>1683</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1708</v>
+        <v>1684</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1709</v>
+        <v>1685</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1710</v>
+        <v>1686</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>1711</v>
+        <v>1687</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>1712</v>
+        <v>1688</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>1713</v>
+        <v>1689</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>1714</v>
+        <v>1690</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>1715</v>
+        <v>1691</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>1716</v>
+        <v>1692</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>1717</v>
+        <v>1693</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1136</v>
+        <v>1119</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1718</v>
+        <v>1694</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1719</v>
+        <v>1695</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>1720</v>
+        <v>1696</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>1721</v>
+        <v>1697</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>1722</v>
+        <v>1698</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>1723</v>
+        <v>1699</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>1724</v>
+        <v>1700</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>1725</v>
+        <v>1701</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>1726</v>
+        <v>1702</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1727</v>
+        <v>1703</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1728</v>
+        <v>1704</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1729</v>
+        <v>1705</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>1730</v>
+        <v>1706</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>1731</v>
+        <v>1707</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>1732</v>
+        <v>1708</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>1733</v>
+        <v>1709</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>1734</v>
+        <v>1710</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>1735</v>
+        <v>1711</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>1736</v>
+        <v>1712</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1737</v>
+        <v>1713</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1738</v>
+        <v>1714</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1739</v>
+        <v>1715</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>1740</v>
+        <v>1716</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>1741</v>
+        <v>1717</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>1742</v>
+        <v>1718</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>1743</v>
+        <v>1719</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>1744</v>
+        <v>1720</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -1074,6 +1074,9 @@
     <t>American Society for Mohs Surgery</t>
   </si>
   <si>
+    <t>850.</t>
+  </si>
+  <si>
     <t>No, , the American Society for Mohs Surgery focuses on specialized dermatologic surgery and does not typically encompass community sites.</t>
   </si>
   <si>
@@ -4763,9 +4766,6 @@
   </si>
   <si>
     <t>Multiple Sclerosis Foundation, Inc.</t>
-  </si>
-  <si>
-    <t>Over 78,000</t>
   </si>
   <si>
     <t>No, the Multiple Sclerosis Foundation, Inc. primarily focuses on providing support and resources for individuals affected by multiple sclerosis, rather than managing community sites.</t>
@@ -5615,13 +5615,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="2" width="8.7265625" style="2"/>
+    <col min="3" max="3" width="225.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -6224,7 +6226,7 @@
         <v>186</v>
       </c>
       <c r="B18" s="2">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>187</v>
@@ -6783,32 +6785,32 @@
       <c r="A34" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B34" s="2">
-        <v>850</v>
+      <c r="B34" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>195</v>
@@ -6816,69 +6818,69 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B36" s="2">
         <v>600</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>101</v>
@@ -6886,34 +6888,34 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>90</v>
@@ -6921,34 +6923,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>101</v>
@@ -6956,34 +6958,34 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>10</v>
@@ -6991,34 +6993,34 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>10</v>
@@ -7026,34 +7028,34 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>12</v>
@@ -7061,34 +7063,34 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>10</v>
@@ -7096,34 +7098,34 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B43" s="2">
         <v>300</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>10</v>
@@ -7131,34 +7133,34 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>37</v>
@@ -7166,34 +7168,34 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>37</v>
@@ -7201,34 +7203,34 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>216</v>
@@ -7236,34 +7238,34 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>314</v>
@@ -7271,69 +7273,69 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>37</v>
@@ -7341,34 +7343,34 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B50" s="2">
         <v>200</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>79</v>
@@ -7376,34 +7378,34 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>90</v>
@@ -7411,34 +7413,34 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>10</v>
@@ -7446,69 +7448,69 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>10</v>
@@ -7516,34 +7518,34 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B55" s="2">
         <v>700</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>195</v>
@@ -7551,34 +7553,34 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>79</v>
@@ -7586,69 +7588,69 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>216</v>
@@ -7656,34 +7658,34 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B59" s="2">
         <v>500</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>10</v>
@@ -7691,34 +7693,34 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>101</v>
@@ -7726,34 +7728,34 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>216</v>
@@ -7761,69 +7763,69 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B62" s="2">
         <v>300</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>10</v>
@@ -7831,34 +7833,34 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>79</v>
@@ -7866,34 +7868,34 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>10</v>
@@ -7901,69 +7903,69 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>79</v>
@@ -7971,34 +7973,34 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>79</v>
@@ -8006,174 +8008,174 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B71" s="2">
         <v>400</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B73" s="2">
         <v>1500000</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>175</v>
@@ -8181,34 +8183,34 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>90</v>
@@ -8216,34 +8218,34 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>90</v>
@@ -8251,34 +8253,34 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>10</v>
@@ -8286,104 +8288,104 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B77" s="2">
         <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B79" s="2">
         <v>300</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>79</v>
@@ -8391,139 +8393,139 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B80" s="3">
         <v>3000</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>79</v>
@@ -8531,104 +8533,104 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B84" s="2">
         <v>300</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>79</v>
@@ -8636,34 +8638,34 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B87" s="2">
         <v>500</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>79</v>
@@ -8671,34 +8673,34 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B88" s="2">
         <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>58</v>
@@ -8706,34 +8708,34 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>101</v>
@@ -8741,34 +8743,34 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>10</v>
@@ -8776,34 +8778,34 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>79</v>
@@ -8811,34 +8813,34 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B92" s="2">
         <v>108</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>79</v>
@@ -8846,69 +8848,69 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>175</v>
@@ -8916,34 +8918,34 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>101</v>
@@ -8951,69 +8953,69 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B96" s="2">
         <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>10</v>
@@ -9021,34 +9023,34 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>133</v>
@@ -9056,34 +9058,34 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B99" s="2">
         <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>10</v>
@@ -9091,104 +9093,104 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>90</v>
@@ -9196,139 +9198,139 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B103" s="2">
         <v>300</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B105" s="2">
         <v>400</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>175</v>
@@ -9336,34 +9338,34 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>216</v>
@@ -9371,69 +9373,69 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B108" s="2">
-        <v>700</v>
+        <v>7000</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>175</v>
@@ -9441,69 +9443,69 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>10</v>
@@ -9511,34 +9513,34 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="K112" s="2" t="s">
         <v>216</v>
@@ -9546,34 +9548,34 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B113" s="2">
         <v>200</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="K113" s="2" t="s">
         <v>216</v>
@@ -9581,69 +9583,69 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>58</v>
@@ -9651,34 +9653,34 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>216</v>
@@ -9686,34 +9688,34 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>216</v>
@@ -9721,34 +9723,34 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>227</v>
@@ -9756,34 +9758,34 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>10</v>
@@ -9791,69 +9793,69 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="K121" s="2" t="s">
         <v>195</v>
@@ -9861,34 +9863,34 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>14</v>
@@ -9896,34 +9898,34 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B123" s="2">
         <v>300</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>79</v>
@@ -9931,139 +9933,139 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="K127" s="2" t="s">
         <v>227</v>
@@ -10071,139 +10073,139 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>316</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>79</v>
@@ -10211,104 +10213,104 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B133" s="2">
         <v>400</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>10</v>
@@ -10316,34 +10318,34 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="K135" s="2" t="s">
         <v>335</v>
@@ -10351,34 +10353,34 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>90</v>
@@ -10386,104 +10388,104 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>316</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>335</v>
@@ -10491,34 +10493,34 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>79</v>
@@ -10526,34 +10528,34 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>227</v>
@@ -10561,34 +10563,34 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>58</v>
@@ -10596,69 +10598,69 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>216</v>
@@ -10666,34 +10668,34 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>216</v>
@@ -10701,34 +10703,34 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B146" s="2">
         <v>800</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>79</v>
@@ -10736,34 +10738,34 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>90</v>
@@ -10771,69 +10773,69 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>10</v>
@@ -10841,34 +10843,34 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>101</v>
@@ -10876,174 +10878,174 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B152" s="2">
         <v>1900</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>227</v>
@@ -11051,34 +11053,34 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B156" s="2">
         <v>300</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>195</v>
@@ -11086,10 +11088,10 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B157" s="2" t="s">
         <v>1561</v>
+      </c>
+      <c r="B157" s="3">
+        <v>78000</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>1562</v>
@@ -11151,7 +11153,7 @@
         <v>1578</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
@@ -11159,7 +11161,7 @@
         <v>1579</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>1580</v>
@@ -11186,7 +11188,7 @@
         <v>1587</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
@@ -11369,7 +11371,7 @@
         <v>1635</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>1636</v>
@@ -11431,7 +11433,7 @@
         <v>1654</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
@@ -11460,13 +11462,13 @@
         <v>1661</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>1662</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
@@ -11579,7 +11581,7 @@
         <v>1693</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>1694</v>
@@ -11649,7 +11651,7 @@
         <v>1712</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>1713</v>

--- a/Pharma_Society_Report.xlsx
+++ b/Pharma_Society_Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="1714">
   <si>
     <t>Society Name</t>
   </si>
@@ -99,7 +99,7 @@
     <t>No, Soleo Health does not include top therapeutic area experts on its board. There is no public information available indicating the presence of top therapeutic area experts on the board of Soleo Health.</t>
   </si>
   <si>
-    <t>Southwest.</t>
+    <t>Southwest</t>
   </si>
   <si>
     <t>Asociacion Puertorriquena De Hemofilia Inc</t>
@@ -326,7 +326,7 @@
     <t>No, the Florida Gastroenterologic Society does not include top therapeutic area experts on its board. The society primarily consists of gastroenterologists and healthcare professionals specializing in digestive health.</t>
   </si>
   <si>
-    <t>Southeast.</t>
+    <t>Southeast</t>
   </si>
   <si>
     <t>Horizon CME</t>
@@ -611,9 +611,6 @@
     <t>No, The Medical Educator Consortium Inc. does not specify if it includes top therapeutic area experts on its board.</t>
   </si>
   <si>
-    <t>Midwest.</t>
-  </si>
-  <si>
     <t>Florida Society of Health-System Pharmacists Inc</t>
   </si>
   <si>
@@ -974,9 +971,6 @@
 The Florida Allergy Asthma &amp; Immunology Society Inc likely includes top therapeutic area experts on its board to ensure expertise in treating patients with allergies, asthma, and immunology conditions.</t>
   </si>
   <si>
-    <t>Florida.</t>
-  </si>
-  <si>
     <t>Florida Society of Rheumatology Inc</t>
   </si>
   <si>
@@ -1674,7 +1668,7 @@
     <t>No, The American Association of Critical Care Nurses includes top therapeutic area experts on its board, as it primarily focuses on critical care nursing practice and education.</t>
   </si>
   <si>
-    <t>American Midwest.</t>
+    <t>American Midwest</t>
   </si>
   <si>
     <t>Palm Beach Society of Health System Pharmacists</t>
@@ -1942,7 +1936,7 @@
     <t>No, Harborside Press LLC does not include top therapeutic area experts on its board, as there is no indication in the information provided.</t>
   </si>
   <si>
-    <t>Northeast.</t>
+    <t>Northeast</t>
   </si>
   <si>
     <t>Mount Sinai Medical Center of Florida Inc</t>
@@ -2161,7 +2155,7 @@
     <t>No, The board of Adventist Health System-Sunbelt Inc likely includes experts in various fields, but it cannot be confirmed whether they specifically include top therapeutic area experts.</t>
   </si>
   <si>
-    <t>South.</t>
+    <t>South</t>
   </si>
   <si>
     <t>Association of Neurovascular Clinicians</t>
@@ -2219,9 +2213,6 @@
   </si>
   <si>
     <t>No, / The Susan G. Komen Breast Cancer Foundation, Inc., National Office focuses primarily on funding research and providing support services rather than directly conducting therapeutic research collaborations.</t>
-  </si>
-  <si>
-    <t>Southwest</t>
   </si>
   <si>
     <t>International Society of Liquid Biopsy</t>
@@ -2434,7 +2425,7 @@
     <t>No, all board members are not therapeutic area experts, as the board consists of a variety of professionals in the field of cardiothoracic surgery.</t>
   </si>
   <si>
-    <t>East.</t>
+    <t>East</t>
   </si>
   <si>
     <t>World Events Forum, Inc.</t>
@@ -2489,9 +2480,6 @@
   </si>
   <si>
     <t>No, there is no information available publicly about top therapeutic area experts on the board of Tallahassee Memorial Healthcare Foundation Inc.</t>
-  </si>
-  <si>
-    <t>Southeastern.</t>
   </si>
   <si>
     <t>Central Florida Association of Physicians From The Indian Subcontinent (CAPI)</t>
@@ -3213,9 +3201,6 @@
     <t>No, the Hemophilia Federation of America does not include top therapeutic area experts on its board. The organization focuses on supporting individuals and families affected by hemophilia and other bleeding disorders, rather than specialized medical expertise.</t>
   </si>
   <si>
-    <t>North America.</t>
-  </si>
-  <si>
     <t>Baptist Health System Inc</t>
   </si>
   <si>
@@ -3696,9 +3681,6 @@
     <t>No, Bendcare LLC does not include top therapeutic area experts on its board. The company focuses primarily on managed care services and pharmacy benefit management, rather than therapeutic areas.</t>
   </si>
   <si>
-    <t>Southeast</t>
-  </si>
-  <si>
     <t>Pulmonary Fibrosis Foundation</t>
   </si>
   <si>
@@ -4668,9 +4650,6 @@
   </si>
   <si>
     <t>No, the purpose of Omega Psi Phi Fraternity, Inc is focused on professional development, leadership, and community service among its members, not specifically in therapeutic areas.</t>
-  </si>
-  <si>
-    <t>East</t>
   </si>
   <si>
     <t>Georgia Society of Rheumotology</t>
@@ -5615,13 +5594,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="82.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="225.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
@@ -6253,39 +6233,39 @@
         <v>194</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>90</v>
@@ -6293,104 +6273,104 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>90</v>
@@ -6398,34 +6378,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>10</v>
@@ -6433,34 +6413,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>47</v>
@@ -6468,34 +6448,34 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>90</v>
@@ -6503,104 +6483,104 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="K26" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="K27" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>90</v>
@@ -6608,34 +6588,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B29" s="2">
         <v>100</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>79</v>
@@ -6643,69 +6623,69 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="K30" s="2" t="s">
-        <v>314</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>10</v>
@@ -6713,69 +6693,69 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>37</v>
@@ -6783,104 +6763,104 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="K34" s="2" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B36" s="2">
         <v>600</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>101</v>
@@ -6888,34 +6868,34 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>90</v>
@@ -6923,34 +6903,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>101</v>
@@ -6958,34 +6938,34 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>10</v>
@@ -6993,34 +6973,34 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>10</v>
@@ -7028,34 +7008,34 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>12</v>
@@ -7063,34 +7043,34 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>10</v>
@@ -7098,34 +7078,34 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B43" s="2">
         <v>300</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>10</v>
@@ -7133,34 +7113,34 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>37</v>
@@ -7168,34 +7148,34 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>37</v>
@@ -7203,139 +7183,139 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="K46" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="K47" s="2" t="s">
-        <v>314</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>37</v>
@@ -7343,34 +7323,34 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B50" s="2">
         <v>200</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>79</v>
@@ -7378,34 +7358,34 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>90</v>
@@ -7413,34 +7393,34 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>10</v>
@@ -7448,69 +7428,69 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>10</v>
@@ -7518,69 +7498,69 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B55" s="2">
         <v>700</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="K55" s="2" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>79</v>
@@ -7588,104 +7568,104 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="K58" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B59" s="2">
         <v>500</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>10</v>
@@ -7693,34 +7673,34 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>101</v>
@@ -7728,104 +7708,104 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="K61" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B62" s="2">
         <v>300</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="F63" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>10</v>
@@ -7833,34 +7813,34 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>79</v>
@@ -7868,34 +7848,34 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>10</v>
@@ -7903,69 +7883,69 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>79</v>
@@ -7973,34 +7953,34 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>79</v>
@@ -8008,174 +7988,174 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B71" s="2">
         <v>400</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>724</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="I72" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="J72" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>734</v>
-      </c>
       <c r="K72" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B73" s="2">
         <v>1500000</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="H73" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="I73" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="K73" s="2" t="s">
         <v>175</v>
@@ -8183,34 +8163,34 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>90</v>
@@ -8218,34 +8198,34 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="F75" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="K75" s="2" t="s">
         <v>90</v>
@@ -8253,34 +8233,34 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>773</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>10</v>
@@ -8288,104 +8268,104 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B77" s="2">
         <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="K78" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B79" s="2">
         <v>300</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>803</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>79</v>
@@ -8393,139 +8373,139 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B80" s="3">
         <v>3000</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>812</v>
-      </c>
       <c r="K80" s="2" t="s">
-        <v>813</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="J81" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="K81" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="I81" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>79</v>
@@ -8533,104 +8513,104 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B84" s="2">
         <v>300</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>864</v>
-      </c>
       <c r="K85" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>870</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>874</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>79</v>
@@ -8638,34 +8618,34 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B87" s="2">
         <v>500</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="J87" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>79</v>
@@ -8673,34 +8653,34 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B88" s="2">
         <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="J88" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>58</v>
@@ -8708,34 +8688,34 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="I89" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>898</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>101</v>
@@ -8743,34 +8723,34 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="J90" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>10</v>
@@ -8778,34 +8758,34 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="J91" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>79</v>
@@ -8813,34 +8793,34 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B92" s="2">
         <v>108</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="I92" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="J92" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>931</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>79</v>
@@ -8848,69 +8828,69 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="J93" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>937</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>950</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>175</v>
@@ -8918,34 +8898,34 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>959</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>101</v>
@@ -8953,69 +8933,69 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B96" s="2">
         <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="J96" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="K96" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="J97" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>979</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>10</v>
@@ -9023,34 +9003,34 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="J98" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>989</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>133</v>
@@ -9058,34 +9038,34 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B99" s="2">
         <v>100</v>
       </c>
       <c r="C99" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="I99" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="J99" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>10</v>
@@ -9093,104 +9073,104 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="J100" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="K100" s="2" t="s">
         <v>1005</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="J101" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>1019</v>
-      </c>
       <c r="K101" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>1025</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>1029</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>90</v>
@@ -9198,139 +9178,139 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B103" s="2">
         <v>300</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="J103" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>1038</v>
-      </c>
       <c r="K103" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="J104" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>1048</v>
-      </c>
       <c r="K104" s="2" t="s">
-        <v>1049</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="B105" s="2">
         <v>400</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="I105" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="J105" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="K105" s="2" t="s">
         <v>1054</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="K105" s="2" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="J106" s="2" t="s">
         <v>1064</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>1069</v>
       </c>
       <c r="K106" s="2" t="s">
         <v>175</v>
@@ -9338,104 +9318,104 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="C107" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="J107" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="F107" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>1078</v>
-      </c>
       <c r="K107" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B108" s="2">
         <v>7000</v>
       </c>
       <c r="C108" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="J108" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="F108" s="2" t="s">
+      <c r="K108" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="K108" s="2" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="I109" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>1093</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>1096</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>1098</v>
       </c>
       <c r="K109" s="2" t="s">
         <v>175</v>
@@ -9443,69 +9423,69 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="I110" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="K110" s="2" t="s">
         <v>1103</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>1105</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="K110" s="2" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>1113</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>1118</v>
       </c>
       <c r="K111" s="2" t="s">
         <v>10</v>
@@ -9513,139 +9493,139 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="J112" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>1128</v>
-      </c>
       <c r="K112" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B113" s="2">
         <v>200</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="I113" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="J113" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>1137</v>
-      </c>
       <c r="K113" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="J114" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="K114" s="2" t="s">
         <v>1143</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="I115" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="J115" s="2" t="s">
         <v>1153</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>1158</v>
       </c>
       <c r="K115" s="2" t="s">
         <v>58</v>
@@ -9653,139 +9633,139 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="J116" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>1168</v>
-      </c>
       <c r="K116" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="I117" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="J117" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>1178</v>
-      </c>
       <c r="K117" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>1179</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="J118" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>1188</v>
-      </c>
       <c r="K118" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>1193</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>1198</v>
       </c>
       <c r="K119" s="2" t="s">
         <v>10</v>
@@ -9793,104 +9773,104 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="J120" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>1207</v>
-      </c>
       <c r="K120" s="2" t="s">
-        <v>1208</v>
+        <v>101</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="I121" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="J121" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>1218</v>
-      </c>
       <c r="K121" s="2" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="J122" s="2" t="s">
         <v>1222</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>1228</v>
       </c>
       <c r="K122" s="2" t="s">
         <v>14</v>
@@ -9898,34 +9878,34 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B123" s="2">
         <v>300</v>
       </c>
       <c r="C123" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I123" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="J123" s="2" t="s">
         <v>1231</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>1234</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>1237</v>
       </c>
       <c r="K123" s="2" t="s">
         <v>79</v>
@@ -9933,279 +9913,279 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H124" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="J124" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>1246</v>
-      </c>
       <c r="K124" s="2" t="s">
-        <v>724</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>1247</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="I125" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="J125" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="K125" s="2" t="s">
         <v>1251</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="K125" s="2" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="J126" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>1266</v>
-      </c>
       <c r="K126" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="J127" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>1271</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>1275</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>1276</v>
-      </c>
       <c r="K127" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H128" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C128" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="J128" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="K128" s="2" t="s">
         <v>1280</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>1285</v>
-      </c>
-      <c r="K128" s="2" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I129" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="J129" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>1295</v>
-      </c>
       <c r="K129" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I130" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C130" s="2" t="s">
+      <c r="J130" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>1300</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>1303</v>
-      </c>
       <c r="K130" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>1306</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="J131" s="2" t="s">
         <v>1307</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>1311</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>1312</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>1313</v>
       </c>
       <c r="K131" s="2" t="s">
         <v>79</v>
@@ -10213,104 +10193,104 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H132" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C132" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="J132" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="K132" s="2" t="s">
         <v>1317</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="B133" s="2">
         <v>400</v>
       </c>
       <c r="C133" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="J133" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>1329</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>1331</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>1332</v>
-      </c>
       <c r="K133" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="J134" s="2" t="s">
         <v>1336</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>1339</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>1340</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>1341</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>1342</v>
       </c>
       <c r="K134" s="2" t="s">
         <v>10</v>
@@ -10318,69 +10298,69 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="I135" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="J135" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>1349</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>1351</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>1352</v>
-      </c>
       <c r="K135" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>1353</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="I136" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="J136" s="2" t="s">
         <v>1356</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>1357</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>1359</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>1362</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>90</v>
@@ -10388,139 +10368,139 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H137" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C137" s="2" t="s">
+      <c r="I137" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="J137" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>1367</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>1368</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>1369</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>1371</v>
-      </c>
       <c r="K137" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H138" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>1373</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="J138" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="K138" s="2" t="s">
         <v>1375</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>1378</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>1379</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>1380</v>
-      </c>
-      <c r="K138" s="2" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="H139" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="I139" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="J139" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>1387</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>1388</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>1390</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>1391</v>
-      </c>
       <c r="K139" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="H140" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="I140" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="J140" s="2" t="s">
         <v>1395</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>1397</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>1398</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>1399</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>1400</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>1401</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>79</v>
@@ -10528,69 +10508,69 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="H141" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="I141" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="J141" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>1408</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>1411</v>
-      </c>
       <c r="K141" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>1412</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="H142" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="I142" s="2" t="s">
         <v>1414</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="J142" s="2" t="s">
         <v>1415</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>1416</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>1417</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>1421</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>58</v>
@@ -10598,139 +10578,139 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="H143" s="2" t="s">
         <v>1422</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C143" s="2" t="s">
+      <c r="I143" s="2" t="s">
         <v>1423</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="J143" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>1428</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>1429</v>
-      </c>
-      <c r="J143" s="2" t="s">
-        <v>1430</v>
-      </c>
       <c r="K143" s="2" t="s">
-        <v>724</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="H144" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="I144" s="2" t="s">
         <v>1433</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="J144" s="2" t="s">
         <v>1434</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>1438</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>1439</v>
-      </c>
-      <c r="J144" s="2" t="s">
-        <v>1440</v>
-      </c>
       <c r="K144" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>1441</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="H145" s="2" t="s">
         <v>1442</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="I145" s="2" t="s">
         <v>1443</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="J145" s="2" t="s">
         <v>1444</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>1446</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>1447</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>1448</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>1450</v>
-      </c>
       <c r="K145" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="B146" s="2">
         <v>800</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I146" s="2" t="s">
         <v>1452</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="J146" s="2" t="s">
         <v>1453</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>1454</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>1457</v>
-      </c>
-      <c r="I146" s="2" t="s">
-        <v>1458</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>1459</v>
       </c>
       <c r="K146" s="2" t="s">
         <v>79</v>
@@ -10738,34 +10718,34 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="H147" s="2" t="s">
         <v>1461</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="I147" s="2" t="s">
         <v>1462</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="J147" s="2" t="s">
         <v>1463</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>1464</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>1465</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>1466</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>1468</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>1469</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>90</v>
@@ -10773,69 +10753,69 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>1470</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="H148" s="2" t="s">
         <v>1471</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="I148" s="2" t="s">
         <v>1472</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>1473</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="K148" s="2" t="s">
         <v>1474</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>1478</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>1479</v>
-      </c>
-      <c r="K148" s="2" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>1481</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C149" s="2" t="s">
+      <c r="I149" s="2" t="s">
         <v>1482</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="J149" s="2" t="s">
         <v>1483</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>1485</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>1486</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>1487</v>
-      </c>
-      <c r="I149" s="2" t="s">
-        <v>1488</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>1489</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>10</v>
@@ -10843,34 +10823,34 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>1490</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="C150" s="2" t="s">
+      <c r="I150" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="J150" s="2" t="s">
         <v>1492</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>1494</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>1495</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>1496</v>
-      </c>
-      <c r="I150" s="2" t="s">
-        <v>1497</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>1498</v>
       </c>
       <c r="K150" s="2" t="s">
         <v>101</v>
@@ -10878,244 +10858,244 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>1499</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="H151" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="I151" s="2" t="s">
         <v>1501</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="J151" s="2" t="s">
         <v>1502</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="K151" s="2" t="s">
         <v>1503</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>1504</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>1505</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>1506</v>
-      </c>
-      <c r="I151" s="2" t="s">
-        <v>1507</v>
-      </c>
-      <c r="J151" s="2" t="s">
-        <v>1508</v>
-      </c>
-      <c r="K151" s="2" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="B152" s="2">
         <v>1900</v>
       </c>
       <c r="C152" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I152" s="2" t="s">
         <v>1511</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="J152" s="2" t="s">
         <v>1512</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="K152" s="2" t="s">
         <v>1513</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>1515</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>1516</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>1517</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="K152" s="2" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="H153" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="I153" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="J153" s="2" t="s">
         <v>1523</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>1524</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>1525</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>1527</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>1528</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>1529</v>
-      </c>
       <c r="K153" s="2" t="s">
-        <v>1530</v>
+        <v>791</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="I154" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="J154" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="K154" s="2" t="s">
         <v>1534</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>1535</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>1536</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>1537</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>1539</v>
-      </c>
-      <c r="J154" s="2" t="s">
-        <v>1540</v>
-      </c>
-      <c r="K154" s="2" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>1542</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="I155" s="2" t="s">
         <v>1543</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="J155" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>1545</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>1547</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>1548</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>1549</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>1550</v>
-      </c>
-      <c r="J155" s="2" t="s">
-        <v>1551</v>
-      </c>
       <c r="K155" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="B156" s="2">
         <v>300</v>
       </c>
       <c r="C156" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J156" s="2" t="s">
         <v>1553</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>1554</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>1555</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>1557</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>1558</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>1559</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>1560</v>
-      </c>
       <c r="K156" s="2" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="B157" s="3">
         <v>78000</v>
       </c>
       <c r="C157" s="2" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J157" s="2" t="s">
         <v>1562</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>1564</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>1566</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>1567</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>1568</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>1569</v>
       </c>
       <c r="K157" s="2" t="s">
         <v>101</v>
@@ -11123,104 +11103,104 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
       <c r="B158" s="2">
         <v>400</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>1570</v>
+      </c>
+      <c r="J158" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>1574</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>1576</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>1577</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>1578</v>
-      </c>
       <c r="K158" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I159" s="2" t="s">
         <v>1579</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="C159" s="2" t="s">
+      <c r="J159" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>1581</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>1582</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>1583</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>1584</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>1585</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>1586</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>1587</v>
-      </c>
       <c r="K159" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="B160" s="2">
         <v>103</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J160" s="2" t="s">
         <v>1589</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>1591</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>1592</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>1593</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>1594</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>1595</v>
-      </c>
-      <c r="J160" s="2" t="s">
-        <v>1596</v>
       </c>
       <c r="K160" s="2" t="s">
         <v>79</v>
@@ -11228,34 +11208,34 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H161" s="2" t="s">
         <v>1597</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="I161" s="2" t="s">
         <v>1598</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="J161" s="2" t="s">
         <v>1599</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>1602</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>1605</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>1606</v>
       </c>
       <c r="K161" s="2" t="s">
         <v>79</v>
@@ -11263,34 +11243,34 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="B162" s="2">
         <v>400</v>
       </c>
       <c r="C162" s="2" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J162" s="2" t="s">
         <v>1608</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>1612</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>1614</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>1615</v>
       </c>
       <c r="K162" s="2" t="s">
         <v>79</v>
@@ -11298,34 +11278,34 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="B163" s="2">
         <v>150</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="J163" s="2" t="s">
         <v>1617</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>1618</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>1619</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>1620</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>1621</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>1622</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>1623</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>1624</v>
       </c>
       <c r="K163" s="2" t="s">
         <v>37</v>
@@ -11333,174 +11313,174 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H164" s="2" t="s">
         <v>1625</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="I164" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="J164" s="2" t="s">
         <v>1627</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>1629</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>1630</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>1631</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>1632</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>1633</v>
-      </c>
-      <c r="J164" s="2" t="s">
-        <v>1634</v>
-      </c>
       <c r="K164" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I165" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="C165" s="2" t="s">
+      <c r="J165" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="K165" s="2" t="s">
         <v>1637</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>1638</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>1639</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>1640</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>1641</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>1642</v>
-      </c>
-      <c r="J165" s="2" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K165" s="2" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H166" s="2" t="s">
         <v>1645</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="I166" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="J166" s="2" t="s">
         <v>1647</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>1649</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>1650</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>1651</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>1652</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>1653</v>
-      </c>
-      <c r="J166" s="2" t="s">
-        <v>1654</v>
-      </c>
       <c r="K166" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
       <c r="B167" s="2">
         <v>60</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H168" s="2" t="s">
         <v>1663</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="I168" s="2" t="s">
         <v>1664</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="J168" s="2" t="s">
         <v>1665</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>1668</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>1669</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>1671</v>
-      </c>
-      <c r="J168" s="2" t="s">
-        <v>1672</v>
       </c>
       <c r="K168" s="2" t="s">
         <v>79</v>
@@ -11508,34 +11488,34 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H169" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="I169" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="J169" s="2" t="s">
         <v>1675</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>1677</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>1678</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>1679</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>1681</v>
-      </c>
-      <c r="J169" s="2" t="s">
-        <v>1682</v>
       </c>
       <c r="K169" s="2" t="s">
         <v>79</v>
@@ -11543,34 +11523,34 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H170" s="2" t="s">
         <v>1683</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="I170" s="2" t="s">
         <v>1684</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="J170" s="2" t="s">
         <v>1685</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>1687</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>1688</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>1689</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>1690</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>1691</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>1692</v>
       </c>
       <c r="K170" s="2" t="s">
         <v>175</v>
@@ -11578,69 +11558,69 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I171" s="2" t="s">
         <v>1693</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C171" s="2" t="s">
+      <c r="J171" s="2" t="s">
         <v>1694</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>1695</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>1697</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>1698</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>1699</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>1700</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>1701</v>
-      </c>
       <c r="K171" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H172" s="2" t="s">
         <v>1702</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="I172" s="2" t="s">
         <v>1703</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="J172" s="2" t="s">
         <v>1704</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>1706</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>1708</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="I172" s="2" t="s">
-        <v>1710</v>
-      </c>
-      <c r="J172" s="2" t="s">
-        <v>1711</v>
       </c>
       <c r="K172" s="2" t="s">
         <v>79</v>
@@ -11648,34 +11628,34 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I173" s="2" t="s">
         <v>1712</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="C173" s="2" t="s">
+      <c r="J173" s="2" t="s">
         <v>1713</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>1715</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>1716</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>1717</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>1718</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>1719</v>
-      </c>
-      <c r="J173" s="2" t="s">
-        <v>1720</v>
       </c>
       <c r="K173" s="2" t="s">
         <v>58</v>
